--- a/JupyterNotebooks/AvgHW/Gamma1F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000043567388706</v>
+        <v>1.000116181152359</v>
       </c>
       <c r="D3">
-        <v>0.9998257314703932</v>
+        <v>0.99990415343116</v>
       </c>
       <c r="E3">
         <v>1.000043567388706</v>
@@ -686,10 +638,10 @@
         <v>1.000043567388706</v>
       </c>
       <c r="G3">
-        <v>1.000116181152359</v>
+        <v>0.9998257314703932</v>
       </c>
       <c r="H3">
-        <v>0.99990415343116</v>
+        <v>1.000043567388706</v>
       </c>
       <c r="I3">
         <v>1.000043567388706</v>
@@ -728,7 +680,7 @@
         <v>0.9999961280366717</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,10 +688,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000084106315881</v>
+        <v>1.000224285572079</v>
       </c>
       <c r="D4">
-        <v>0.9996635751386809</v>
+        <v>0.999814966908773</v>
       </c>
       <c r="E4">
         <v>1.000084106315881</v>
@@ -748,10 +700,10 @@
         <v>1.000084106315881</v>
       </c>
       <c r="G4">
-        <v>1.000224285572079</v>
+        <v>0.9996635751386809</v>
       </c>
       <c r="H4">
-        <v>0.999814966908773</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="I4">
         <v>1.000084106315881</v>
@@ -790,7 +742,7 @@
         <v>0.9999925244278626</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,10 +750,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00016117836504</v>
+        <v>1.000429814260814</v>
       </c>
       <c r="D5">
-        <v>0.999355280713828</v>
+        <v>0.9996454054326173</v>
       </c>
       <c r="E5">
         <v>1.00016117836504</v>
@@ -810,10 +762,10 @@
         <v>1.00016117836504</v>
       </c>
       <c r="G5">
-        <v>1.000429814260814</v>
+        <v>0.999355280713828</v>
       </c>
       <c r="H5">
-        <v>0.9996454054326173</v>
+        <v>1.00016117836504</v>
       </c>
       <c r="I5">
         <v>1.00016117836504</v>
@@ -852,7 +804,7 @@
         <v>0.9999856725837301</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,10 +812,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000236402985848</v>
+        <v>1.000630399815264</v>
       </c>
       <c r="D6">
-        <v>0.9990544040369924</v>
+        <v>0.9994799261461261</v>
       </c>
       <c r="E6">
         <v>1.000236402985848</v>
@@ -872,10 +824,10 @@
         <v>1.000236402985848</v>
       </c>
       <c r="G6">
-        <v>1.000630399815264</v>
+        <v>0.9990544040369924</v>
       </c>
       <c r="H6">
-        <v>0.9994799261461261</v>
+        <v>1.000236402985848</v>
       </c>
       <c r="I6">
         <v>1.000236402985848</v>
@@ -914,7 +866,7 @@
         <v>0.9999789898259879</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000003105595152</v>
+        <v>1.000008283732397</v>
       </c>
       <c r="D7">
-        <v>0.9999875777957143</v>
+        <v>0.9999931687823137</v>
       </c>
       <c r="E7">
         <v>1.000003105595152</v>
@@ -934,10 +886,10 @@
         <v>1.000003105595152</v>
       </c>
       <c r="G7">
-        <v>1.000008283732397</v>
+        <v>0.9999875777957143</v>
       </c>
       <c r="H7">
-        <v>0.9999931687823137</v>
+        <v>1.000003105595152</v>
       </c>
       <c r="I7">
         <v>1.000003105595152</v>
@@ -976,7 +928,7 @@
         <v>0.9999997245159801</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000007916293537</v>
+        <v>1.000021112258991</v>
       </c>
       <c r="D8">
-        <v>0.9999683348065951</v>
+        <v>0.9999825851559415</v>
       </c>
       <c r="E8">
         <v>1.000007916293537</v>
@@ -996,10 +948,10 @@
         <v>1.000007916293537</v>
       </c>
       <c r="G8">
-        <v>1.000021112258991</v>
+        <v>0.9999683348065951</v>
       </c>
       <c r="H8">
-        <v>0.9999825851559415</v>
+        <v>1.000007916293537</v>
       </c>
       <c r="I8">
         <v>1.000007916293537</v>
@@ -1038,7 +990,7 @@
         <v>0.9999992968503563</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,10 +998,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000011084386402</v>
+        <v>1.000029559841946</v>
       </c>
       <c r="D9">
-        <v>0.9999556637635209</v>
+        <v>0.9999756160374057</v>
       </c>
       <c r="E9">
         <v>1.000011084386402</v>
@@ -1058,10 +1010,10 @@
         <v>1.000011084386402</v>
       </c>
       <c r="G9">
-        <v>1.000029559841946</v>
+        <v>0.9999556637635209</v>
       </c>
       <c r="H9">
-        <v>0.9999756160374057</v>
+        <v>1.000011084386402</v>
       </c>
       <c r="I9">
         <v>1.000011084386402</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999990154670133</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,10 +1060,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000023900246241</v>
+        <v>1.000063736986437</v>
       </c>
       <c r="D10">
-        <v>0.9999043973042239</v>
+        <v>0.9999474196144628</v>
       </c>
       <c r="E10">
         <v>1.000023900246241</v>
@@ -1120,10 +1072,10 @@
         <v>1.000023900246241</v>
       </c>
       <c r="G10">
-        <v>1.000063736986436</v>
+        <v>0.9999043973042239</v>
       </c>
       <c r="H10">
-        <v>0.9999474196144628</v>
+        <v>1.000023900246241</v>
       </c>
       <c r="I10">
         <v>1.000023900246241</v>
@@ -1159,10 +1111,10 @@
         <v>0.9999940245107366</v>
       </c>
       <c r="T10">
-        <v>0.9999978757739743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9999978757739744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,10 +1122,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000039646613527</v>
+        <v>1.000105724755837</v>
       </c>
       <c r="D11">
-        <v>0.9998414194552877</v>
+        <v>0.9999127780501033</v>
       </c>
       <c r="E11">
         <v>1.000039646613527</v>
@@ -1182,10 +1134,10 @@
         <v>1.000039646613527</v>
       </c>
       <c r="G11">
-        <v>1.000105724755837</v>
+        <v>0.9998414194552877</v>
       </c>
       <c r="H11">
-        <v>0.9999127780501033</v>
+        <v>1.000039646613527</v>
       </c>
       <c r="I11">
         <v>1.000039646613527</v>
@@ -1200,31 +1152,31 @@
         <v>1.000039646613527</v>
       </c>
       <c r="M11">
-        <v>0.9999405330344073</v>
+        <v>0.9999405330344076</v>
       </c>
       <c r="N11">
-        <v>0.9999405330344073</v>
+        <v>0.9999405330344076</v>
       </c>
       <c r="O11">
-        <v>0.9999312813729726</v>
+        <v>0.9999312813729727</v>
       </c>
       <c r="P11">
-        <v>0.999973570894114</v>
+        <v>0.9999735708941141</v>
       </c>
       <c r="Q11">
-        <v>0.999973570894114</v>
+        <v>0.9999735708941141</v>
       </c>
       <c r="R11">
-        <v>0.9999900898239673</v>
+        <v>0.9999900898239674</v>
       </c>
       <c r="S11">
-        <v>0.9999900898239673</v>
+        <v>0.9999900898239674</v>
       </c>
       <c r="T11">
-        <v>0.9999964770169681</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9999964770169684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9996486128627142</v>
+        <v>0.9990629629886892</v>
       </c>
       <c r="D12">
-        <v>1.001405547539571</v>
+        <v>1.000773057607487</v>
       </c>
       <c r="E12">
         <v>0.9996486128627142</v>
@@ -1244,10 +1196,10 @@
         <v>0.9996486128627142</v>
       </c>
       <c r="G12">
-        <v>0.9990629629886892</v>
+        <v>1.001405547539571</v>
       </c>
       <c r="H12">
-        <v>1.000773057607487</v>
+        <v>0.9996486128627142</v>
       </c>
       <c r="I12">
         <v>0.9996486128627142</v>
@@ -1286,7 +1238,7 @@
         <v>1.000031234453982</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,10 +1246,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.999909277551643</v>
+        <v>0.9997580710951542</v>
       </c>
       <c r="D13">
-        <v>1.00036290019896</v>
+        <v>1.000199597022938</v>
       </c>
       <c r="E13">
         <v>0.999909277551643</v>
@@ -1306,10 +1258,10 @@
         <v>0.999909277551643</v>
       </c>
       <c r="G13">
-        <v>0.9997580710951544</v>
+        <v>1.00036290019896</v>
       </c>
       <c r="H13">
-        <v>1.000199597022938</v>
+        <v>0.999909277551643</v>
       </c>
       <c r="I13">
         <v>0.999909277551643</v>
@@ -1348,7 +1300,7 @@
         <v>1.000008066828664</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,10 +1308,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9996486435848649</v>
+        <v>0.9990630426419195</v>
       </c>
       <c r="D14">
-        <v>1.001405444837208</v>
+        <v>1.000772998997628</v>
       </c>
       <c r="E14">
         <v>0.9996486435848649</v>
@@ -1368,10 +1320,10 @@
         <v>0.9996486435848649</v>
       </c>
       <c r="G14">
-        <v>0.9990630426419195</v>
+        <v>1.001405444837208</v>
       </c>
       <c r="H14">
-        <v>1.000772998997628</v>
+        <v>0.9996486435848649</v>
       </c>
       <c r="I14">
         <v>0.9996486435848649</v>
@@ -1410,7 +1362,7 @@
         <v>1.000031236205225</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,10 +1370,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9999092747051428</v>
+        <v>0.9997580896586302</v>
       </c>
       <c r="D15">
-        <v>1.000362879047983</v>
+        <v>1.00019957926588</v>
       </c>
       <c r="E15">
         <v>0.9999092747051428</v>
@@ -1430,10 +1382,10 @@
         <v>0.9999092747051428</v>
       </c>
       <c r="G15">
-        <v>0.9997580896586302</v>
+        <v>1.000362879047983</v>
       </c>
       <c r="H15">
-        <v>1.00019957926588</v>
+        <v>0.9999092747051428</v>
       </c>
       <c r="I15">
         <v>0.9999092747051428</v>
@@ -1472,7 +1424,7 @@
         <v>1.000008062014653</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000179589718</v>
+        <v>1.002266097256882</v>
       </c>
       <c r="D16">
-        <v>0.9999992824364109</v>
+        <v>0.9981304714328451</v>
       </c>
       <c r="E16">
-        <v>1.000000179589718</v>
+        <v>1.000849787892559</v>
       </c>
       <c r="F16">
-        <v>1.000000179589718</v>
+        <v>1.000849787892559</v>
       </c>
       <c r="G16">
-        <v>1.000000480649996</v>
+        <v>0.9966008562469491</v>
       </c>
       <c r="H16">
-        <v>0.9999996063219282</v>
+        <v>1.000849787892559</v>
       </c>
       <c r="I16">
-        <v>1.000000179589718</v>
+        <v>1.000849787892559</v>
       </c>
       <c r="J16">
-        <v>0.9999992824364109</v>
+        <v>0.9966008562469491</v>
       </c>
       <c r="K16">
-        <v>1.000000179589718</v>
+        <v>1.000849787892559</v>
       </c>
       <c r="L16">
-        <v>1.000000179589718</v>
+        <v>1.000849787892559</v>
       </c>
       <c r="M16">
-        <v>0.9999997310130646</v>
+        <v>0.9987253220697541</v>
       </c>
       <c r="N16">
-        <v>0.9999997310130646</v>
+        <v>0.9987253220697541</v>
       </c>
       <c r="O16">
-        <v>0.9999996894493525</v>
+        <v>0.9985270385241177</v>
       </c>
       <c r="P16">
-        <v>0.9999998805386158</v>
+        <v>0.9994334773440224</v>
       </c>
       <c r="Q16">
-        <v>0.9999998805386158</v>
+        <v>0.9994334773440224</v>
       </c>
       <c r="R16">
-        <v>0.9999999553013914</v>
+        <v>0.9997875549811566</v>
       </c>
       <c r="S16">
-        <v>0.9999999553013914</v>
+        <v>0.9997875549811566</v>
       </c>
       <c r="T16">
-        <v>0.9999999846962483</v>
+        <v>0.9999244647690588</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003809354274</v>
+        <v>1.001854336953717</v>
       </c>
       <c r="D17">
-        <v>0.9999847616716492</v>
+        <v>0.9984701736858378</v>
       </c>
       <c r="E17">
-        <v>1.000003809354274</v>
+        <v>1.000695376418644</v>
       </c>
       <c r="F17">
-        <v>1.000003809354274</v>
+        <v>1.000695376418644</v>
       </c>
       <c r="G17">
-        <v>1.00001016109057</v>
+        <v>0.99721849661588</v>
       </c>
       <c r="H17">
-        <v>0.9999916199185668</v>
+        <v>1.000695376418644</v>
       </c>
       <c r="I17">
-        <v>1.000003809354274</v>
+        <v>1.000695376418644</v>
       </c>
       <c r="J17">
-        <v>0.9999847616716492</v>
+        <v>0.99721849661588</v>
       </c>
       <c r="K17">
-        <v>1.000003809354274</v>
+        <v>1.000695376418644</v>
       </c>
       <c r="L17">
-        <v>1.000003809354274</v>
+        <v>1.000695376418644</v>
       </c>
       <c r="M17">
-        <v>0.9999942855129615</v>
+        <v>0.9989569365172621</v>
       </c>
       <c r="N17">
-        <v>0.9999942855129615</v>
+        <v>0.9989569365172621</v>
       </c>
       <c r="O17">
-        <v>0.9999933969814966</v>
+        <v>0.9987946822401207</v>
       </c>
       <c r="P17">
-        <v>0.9999974601267323</v>
+        <v>0.9995364164843895</v>
       </c>
       <c r="Q17">
-        <v>0.9999974601267323</v>
+        <v>0.9995364164843895</v>
       </c>
       <c r="R17">
-        <v>0.9999990474336177</v>
+        <v>0.9998261564679531</v>
       </c>
       <c r="S17">
-        <v>0.9999990474336177</v>
+        <v>0.9998261564679531</v>
       </c>
       <c r="T17">
-        <v>0.9999996617906012</v>
+        <v>0.9999381894185614</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013415047468</v>
+        <v>1.001026372007914</v>
       </c>
       <c r="D18">
-        <v>0.9999463461236601</v>
+        <v>0.999153243505149</v>
       </c>
       <c r="E18">
-        <v>1.000013415047468</v>
+        <v>1.00038488671118</v>
       </c>
       <c r="F18">
-        <v>1.000013415047468</v>
+        <v>1.00038488671118</v>
       </c>
       <c r="G18">
-        <v>1.000035771917387</v>
+        <v>0.9984604434479958</v>
       </c>
       <c r="H18">
-        <v>0.9999704904213603</v>
+        <v>1.00038488671118</v>
       </c>
       <c r="I18">
-        <v>1.000013415047468</v>
+        <v>1.00038488671118</v>
       </c>
       <c r="J18">
-        <v>0.9999463461236601</v>
+        <v>0.9984604434479958</v>
       </c>
       <c r="K18">
-        <v>1.000013415047468</v>
+        <v>1.00038488671118</v>
       </c>
       <c r="L18">
-        <v>1.000013415047468</v>
+        <v>1.00038488671118</v>
       </c>
       <c r="M18">
-        <v>0.999979880585564</v>
+        <v>0.9994226650795877</v>
       </c>
       <c r="N18">
-        <v>0.999979880585564</v>
+        <v>0.9994226650795877</v>
       </c>
       <c r="O18">
-        <v>0.9999767505308294</v>
+        <v>0.9993328578881081</v>
       </c>
       <c r="P18">
-        <v>0.999991058739532</v>
+        <v>0.9997434056234517</v>
       </c>
       <c r="Q18">
-        <v>0.999991058739532</v>
+        <v>0.9997434056234517</v>
       </c>
       <c r="R18">
-        <v>0.999996647816516</v>
+        <v>0.9999037758953836</v>
       </c>
       <c r="S18">
-        <v>0.999996647816516</v>
+        <v>0.9999037758953836</v>
       </c>
       <c r="T18">
-        <v>0.9999988089341351</v>
+        <v>0.9999657865157663</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.001120402469521</v>
+      </c>
+      <c r="D19">
+        <v>0.9990756666287486</v>
+      </c>
+      <c r="E19">
+        <v>1.000420147944304</v>
+      </c>
+      <c r="F19">
+        <v>1.000420147944304</v>
+      </c>
+      <c r="G19">
+        <v>0.9983193957054817</v>
+      </c>
+      <c r="H19">
+        <v>1.000420147944304</v>
+      </c>
+      <c r="I19">
+        <v>1.000420147944304</v>
+      </c>
+      <c r="J19">
+        <v>0.9983193957054817</v>
+      </c>
+      <c r="K19">
+        <v>1.000420147944304</v>
+      </c>
+      <c r="L19">
+        <v>1.000420147944304</v>
+      </c>
+      <c r="M19">
+        <v>0.9993697718248926</v>
+      </c>
+      <c r="N19">
+        <v>0.9993697718248926</v>
+      </c>
+      <c r="O19">
+        <v>0.9992717367595113</v>
+      </c>
+      <c r="P19">
+        <v>0.9997198971980296</v>
+      </c>
+      <c r="Q19">
+        <v>0.9997198971980296</v>
+      </c>
+      <c r="R19">
+        <v>0.9998949598845981</v>
+      </c>
+      <c r="S19">
+        <v>0.9998949598845981</v>
+      </c>
+      <c r="T19">
+        <v>0.9999626514394437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000480649996</v>
+      </c>
+      <c r="D20">
+        <v>0.9999996063219282</v>
+      </c>
+      <c r="E20">
+        <v>1.000000179589718</v>
+      </c>
+      <c r="F20">
+        <v>1.000000179589718</v>
+      </c>
+      <c r="G20">
+        <v>0.9999992824364109</v>
+      </c>
+      <c r="H20">
+        <v>1.000000179589718</v>
+      </c>
+      <c r="I20">
+        <v>1.000000179589718</v>
+      </c>
+      <c r="J20">
+        <v>0.9999992824364109</v>
+      </c>
+      <c r="K20">
+        <v>1.000000179589718</v>
+      </c>
+      <c r="L20">
+        <v>1.000000179589718</v>
+      </c>
+      <c r="M20">
+        <v>0.9999997310130646</v>
+      </c>
+      <c r="N20">
+        <v>0.9999997310130646</v>
+      </c>
+      <c r="O20">
+        <v>0.9999996894493525</v>
+      </c>
+      <c r="P20">
+        <v>0.9999998805386158</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999998805386158</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999553013914</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999553013914</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999846962483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.00001016109057</v>
+      </c>
+      <c r="D21">
+        <v>0.9999916199185668</v>
+      </c>
+      <c r="E21">
+        <v>1.000003809354274</v>
+      </c>
+      <c r="F21">
+        <v>1.000003809354274</v>
+      </c>
+      <c r="G21">
+        <v>0.9999847616716492</v>
+      </c>
+      <c r="H21">
+        <v>1.000003809354274</v>
+      </c>
+      <c r="I21">
+        <v>1.000003809354274</v>
+      </c>
+      <c r="J21">
+        <v>0.9999847616716492</v>
+      </c>
+      <c r="K21">
+        <v>1.000003809354274</v>
+      </c>
+      <c r="L21">
+        <v>1.000003809354274</v>
+      </c>
+      <c r="M21">
+        <v>0.9999942855129615</v>
+      </c>
+      <c r="N21">
+        <v>0.9999942855129615</v>
+      </c>
+      <c r="O21">
+        <v>0.9999933969814966</v>
+      </c>
+      <c r="P21">
+        <v>0.9999974601267323</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999974601267323</v>
+      </c>
+      <c r="R21">
+        <v>0.9999990474336177</v>
+      </c>
+      <c r="S21">
+        <v>0.9999990474336177</v>
+      </c>
+      <c r="T21">
+        <v>0.9999996617906012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000035771917387</v>
+      </c>
+      <c r="D22">
+        <v>0.9999704904213608</v>
+      </c>
+      <c r="E22">
+        <v>1.000013415047468</v>
+      </c>
+      <c r="F22">
+        <v>1.000013415047468</v>
+      </c>
+      <c r="G22">
+        <v>0.9999463461236601</v>
+      </c>
+      <c r="H22">
+        <v>1.000013415047468</v>
+      </c>
+      <c r="I22">
+        <v>1.000013415047468</v>
+      </c>
+      <c r="J22">
+        <v>0.9999463461236601</v>
+      </c>
+      <c r="K22">
+        <v>1.000013415047468</v>
+      </c>
+      <c r="L22">
+        <v>1.000013415047468</v>
+      </c>
+      <c r="M22">
+        <v>0.999979880585564</v>
+      </c>
+      <c r="N22">
+        <v>0.999979880585564</v>
+      </c>
+      <c r="O22">
+        <v>0.9999767505308296</v>
+      </c>
+      <c r="P22">
+        <v>0.999991058739532</v>
+      </c>
+      <c r="Q22">
+        <v>0.999991058739532</v>
+      </c>
+      <c r="R22">
+        <v>0.999996647816516</v>
+      </c>
+      <c r="S22">
+        <v>0.999996647816516</v>
+      </c>
+      <c r="T22">
+        <v>0.9999988089341351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.00008380236669</v>
+      </c>
+      <c r="D23">
+        <v>0.9999308683565417</v>
+      </c>
+      <c r="E23">
         <v>1.000031427609705</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.000031427609705</v>
+      </c>
+      <c r="G23">
         <v>0.9998743045294539</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>1.000031427609705</v>
       </c>
-      <c r="F19">
+      <c r="I23">
         <v>1.000031427609705</v>
       </c>
-      <c r="G19">
-        <v>1.00008380236669</v>
-      </c>
-      <c r="H19">
-        <v>0.9999308683565417</v>
-      </c>
-      <c r="I19">
+      <c r="J23">
+        <v>0.9998743045294539</v>
+      </c>
+      <c r="K23">
         <v>1.000031427609705</v>
       </c>
-      <c r="J19">
-        <v>0.9998743045294539</v>
-      </c>
-      <c r="K19">
+      <c r="L23">
         <v>1.000031427609705</v>
       </c>
-      <c r="L19">
-        <v>1.000031427609705</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9999528660695796</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9999528660695796</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.999945533498567</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999790532496213</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999790532496213</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999921468396422</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999921468396422</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999972096803001</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000116181152359</v>
+        <v>1.0012156115634</v>
       </c>
       <c r="D3">
-        <v>0.99990415343116</v>
+        <v>0.9989971220389099</v>
       </c>
       <c r="E3">
-        <v>1.000043567388706</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="F3">
-        <v>1.000043567388706</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="G3">
-        <v>0.9998257314703932</v>
+        <v>0.9981765845388988</v>
       </c>
       <c r="H3">
-        <v>1.000043567388706</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="I3">
-        <v>1.000043567388706</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="J3">
-        <v>0.9998257314703932</v>
+        <v>0.9981765845388988</v>
       </c>
       <c r="K3">
-        <v>1.000043567388706</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="L3">
-        <v>1.000043567388706</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="M3">
-        <v>0.9999346494295496</v>
+        <v>0.9993162182132532</v>
       </c>
       <c r="N3">
-        <v>0.9999346494295496</v>
+        <v>0.9993162182132532</v>
       </c>
       <c r="O3">
-        <v>0.9999244840967531</v>
+        <v>0.9992098528218055</v>
       </c>
       <c r="P3">
-        <v>0.9999709554159351</v>
+        <v>0.9996960961047048</v>
       </c>
       <c r="Q3">
-        <v>0.9999709554159351</v>
+        <v>0.9996960961047048</v>
       </c>
       <c r="R3">
-        <v>0.9999891084091278</v>
+        <v>0.9998860350504305</v>
       </c>
       <c r="S3">
-        <v>0.9999891084091278</v>
+        <v>0.9998860350504305</v>
       </c>
       <c r="T3">
-        <v>0.9999961280366717</v>
+        <v>0.9999594789673386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000224285572079</v>
+        <v>1.001112335169587</v>
       </c>
       <c r="D4">
-        <v>0.999814966908773</v>
+        <v>0.9990823251127423</v>
       </c>
       <c r="E4">
-        <v>1.000084106315881</v>
+        <v>1.00041712313643</v>
       </c>
       <c r="F4">
-        <v>1.000084106315881</v>
+        <v>1.00041712313643</v>
       </c>
       <c r="G4">
-        <v>0.9996635751386809</v>
+        <v>0.998331499112008</v>
       </c>
       <c r="H4">
-        <v>1.000084106315881</v>
+        <v>1.00041712313643</v>
       </c>
       <c r="I4">
-        <v>1.000084106315881</v>
+        <v>1.00041712313643</v>
       </c>
       <c r="J4">
-        <v>0.9996635751386809</v>
+        <v>0.998331499112008</v>
       </c>
       <c r="K4">
-        <v>1.000084106315881</v>
+        <v>1.00041712313643</v>
       </c>
       <c r="L4">
-        <v>1.000084106315881</v>
+        <v>1.00041712313643</v>
       </c>
       <c r="M4">
-        <v>0.9998738407272807</v>
+        <v>0.999374311124219</v>
       </c>
       <c r="N4">
-        <v>0.9998738407272807</v>
+        <v>0.999374311124219</v>
       </c>
       <c r="O4">
-        <v>0.9998542161211116</v>
+        <v>0.9992769824537268</v>
       </c>
       <c r="P4">
-        <v>0.9999439292568141</v>
+        <v>0.9997219151282893</v>
       </c>
       <c r="Q4">
-        <v>0.9999439292568141</v>
+        <v>0.9997219151282893</v>
       </c>
       <c r="R4">
-        <v>0.9999789735215807</v>
+        <v>0.9998957171303245</v>
       </c>
       <c r="S4">
-        <v>0.9999789735215807</v>
+        <v>0.9998957171303245</v>
       </c>
       <c r="T4">
-        <v>0.9999925244278626</v>
+        <v>0.9999629214672714</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000429814260814</v>
+        <v>1.001412071617251</v>
       </c>
       <c r="D5">
-        <v>0.9996454054326173</v>
+        <v>0.9988350454177904</v>
       </c>
       <c r="E5">
-        <v>1.00016117836504</v>
+        <v>1.000529526199465</v>
       </c>
       <c r="F5">
-        <v>1.00016117836504</v>
+        <v>1.000529526199465</v>
       </c>
       <c r="G5">
-        <v>0.999355280713828</v>
+        <v>0.9978818999999978</v>
       </c>
       <c r="H5">
-        <v>1.00016117836504</v>
+        <v>1.000529526199465</v>
       </c>
       <c r="I5">
-        <v>1.00016117836504</v>
+        <v>1.000529526199465</v>
       </c>
       <c r="J5">
-        <v>0.999355280713828</v>
+        <v>0.9978818999999978</v>
       </c>
       <c r="K5">
-        <v>1.00016117836504</v>
+        <v>1.000529526199465</v>
       </c>
       <c r="L5">
-        <v>1.00016117836504</v>
+        <v>1.000529526199465</v>
       </c>
       <c r="M5">
-        <v>0.9997582295394342</v>
+        <v>0.9992057130997314</v>
       </c>
       <c r="N5">
-        <v>0.9997582295394342</v>
+        <v>0.9992057130997314</v>
       </c>
       <c r="O5">
-        <v>0.9997206215038285</v>
+        <v>0.9990821572057511</v>
       </c>
       <c r="P5">
-        <v>0.9998925458146362</v>
+        <v>0.9996469841329759</v>
       </c>
       <c r="Q5">
-        <v>0.9998925458146362</v>
+        <v>0.9996469841329759</v>
       </c>
       <c r="R5">
-        <v>0.9999597039522372</v>
+        <v>0.9998676196495981</v>
       </c>
       <c r="S5">
-        <v>0.9999597039522372</v>
+        <v>0.9998676196495981</v>
       </c>
       <c r="T5">
-        <v>0.9999856725837301</v>
+        <v>0.9999529326055724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000630399815264</v>
+        <v>1.001595887556818</v>
       </c>
       <c r="D6">
-        <v>0.9994799261461261</v>
+        <v>0.9986833944886356</v>
       </c>
       <c r="E6">
-        <v>1.000236402985848</v>
+        <v>1.000598456249998</v>
       </c>
       <c r="F6">
-        <v>1.000236402985848</v>
+        <v>1.000598456249998</v>
       </c>
       <c r="G6">
-        <v>0.9990544040369924</v>
+        <v>0.9976061684659091</v>
       </c>
       <c r="H6">
-        <v>1.000236402985848</v>
+        <v>1.000598456249998</v>
       </c>
       <c r="I6">
-        <v>1.000236402985848</v>
+        <v>1.000598456249998</v>
       </c>
       <c r="J6">
-        <v>0.9990544040369924</v>
+        <v>0.9976061684659091</v>
       </c>
       <c r="K6">
-        <v>1.000236402985848</v>
+        <v>1.000598456249998</v>
       </c>
       <c r="L6">
-        <v>1.000236402985848</v>
+        <v>1.000598456249998</v>
       </c>
       <c r="M6">
-        <v>0.9996454035114204</v>
+        <v>0.9991023123579537</v>
       </c>
       <c r="N6">
-        <v>0.9996454035114204</v>
+        <v>0.9991023123579537</v>
       </c>
       <c r="O6">
-        <v>0.9995902443896556</v>
+        <v>0.998962673068181</v>
       </c>
       <c r="P6">
-        <v>0.9998424033362298</v>
+        <v>0.9996010269886352</v>
       </c>
       <c r="Q6">
-        <v>0.9998424033362298</v>
+        <v>0.9996010269886352</v>
       </c>
       <c r="R6">
-        <v>0.9999409032486344</v>
+        <v>0.9998503843039759</v>
       </c>
       <c r="S6">
-        <v>0.9999409032486344</v>
+        <v>0.9998503843039759</v>
       </c>
       <c r="T6">
-        <v>0.9999789898259879</v>
+        <v>0.9999468032102262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000008283732397</v>
+        <v>1.000675976061962</v>
       </c>
       <c r="D7">
-        <v>0.9999931687823137</v>
+        <v>0.9994423173484633</v>
       </c>
       <c r="E7">
-        <v>1.000003105595152</v>
+        <v>1.000253489827147</v>
       </c>
       <c r="F7">
-        <v>1.000003105595152</v>
+        <v>1.000253489827147</v>
       </c>
       <c r="G7">
-        <v>0.9999875777957143</v>
+        <v>0.9989860224015407</v>
       </c>
       <c r="H7">
-        <v>1.000003105595152</v>
+        <v>1.000253489827147</v>
       </c>
       <c r="I7">
-        <v>1.000003105595152</v>
+        <v>1.000253489827147</v>
       </c>
       <c r="J7">
-        <v>0.9999875777957143</v>
+        <v>0.9989860224015407</v>
       </c>
       <c r="K7">
-        <v>1.000003105595152</v>
+        <v>1.000253489827147</v>
       </c>
       <c r="L7">
-        <v>1.000003105595152</v>
+        <v>1.000253489827147</v>
       </c>
       <c r="M7">
-        <v>0.9999953416954332</v>
+        <v>0.9996197561143436</v>
       </c>
       <c r="N7">
-        <v>0.9999953416954332</v>
+        <v>0.9996197561143436</v>
       </c>
       <c r="O7">
-        <v>0.9999946173910601</v>
+        <v>0.9995606098590502</v>
       </c>
       <c r="P7">
-        <v>0.9999979296620062</v>
+        <v>0.999831000685278</v>
       </c>
       <c r="Q7">
-        <v>0.9999979296620062</v>
+        <v>0.999831000685278</v>
       </c>
       <c r="R7">
-        <v>0.9999992236452927</v>
+        <v>0.9999366229707451</v>
       </c>
       <c r="S7">
-        <v>0.9999992236452927</v>
+        <v>0.9999366229707451</v>
       </c>
       <c r="T7">
-        <v>0.9999997245159801</v>
+        <v>0.9999774642155677</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000021112258991</v>
+        <v>1.000702780149616</v>
       </c>
       <c r="D8">
-        <v>0.9999825851559415</v>
+        <v>0.9994202039585336</v>
       </c>
       <c r="E8">
-        <v>1.000007916293537</v>
+        <v>1.000263541266357</v>
       </c>
       <c r="F8">
-        <v>1.000007916293537</v>
+        <v>1.000263541266357</v>
       </c>
       <c r="G8">
-        <v>0.9999683348065951</v>
+        <v>0.9989458162720781</v>
       </c>
       <c r="H8">
-        <v>1.000007916293537</v>
+        <v>1.000263541266357</v>
       </c>
       <c r="I8">
-        <v>1.000007916293537</v>
+        <v>1.000263541266357</v>
       </c>
       <c r="J8">
-        <v>0.9999683348065951</v>
+        <v>0.9989458162720781</v>
       </c>
       <c r="K8">
-        <v>1.000007916293537</v>
+        <v>1.000263541266357</v>
       </c>
       <c r="L8">
-        <v>1.000007916293537</v>
+        <v>1.000263541266357</v>
       </c>
       <c r="M8">
-        <v>0.9999881255500659</v>
+        <v>0.9996046787692174</v>
       </c>
       <c r="N8">
-        <v>0.9999881255500659</v>
+        <v>0.9996046787692174</v>
       </c>
       <c r="O8">
-        <v>0.9999862787520244</v>
+        <v>0.999543187165656</v>
       </c>
       <c r="P8">
-        <v>0.9999947224645561</v>
+        <v>0.9998242996015971</v>
       </c>
       <c r="Q8">
-        <v>0.9999947224645561</v>
+        <v>0.9998242996015971</v>
       </c>
       <c r="R8">
-        <v>0.9999980209218012</v>
+        <v>0.999934110017787</v>
       </c>
       <c r="S8">
-        <v>0.9999980209218012</v>
+        <v>0.999934110017787</v>
       </c>
       <c r="T8">
-        <v>0.9999992968503563</v>
+        <v>0.9999765706965497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000029559841946</v>
+        <v>1.000725657102862</v>
       </c>
       <c r="D9">
-        <v>0.9999756160374057</v>
+        <v>0.9994013304706159</v>
       </c>
       <c r="E9">
-        <v>1.000011084386402</v>
+        <v>1.000272120113599</v>
       </c>
       <c r="F9">
-        <v>1.000011084386402</v>
+        <v>1.000272120113599</v>
       </c>
       <c r="G9">
-        <v>0.9999556637635209</v>
+        <v>0.9989115008795375</v>
       </c>
       <c r="H9">
-        <v>1.000011084386402</v>
+        <v>1.000272120113599</v>
       </c>
       <c r="I9">
-        <v>1.000011084386402</v>
+        <v>1.000272120113599</v>
       </c>
       <c r="J9">
-        <v>0.9999556637635209</v>
+        <v>0.9989115008795375</v>
       </c>
       <c r="K9">
-        <v>1.000011084386402</v>
+        <v>1.000272120113599</v>
       </c>
       <c r="L9">
-        <v>1.000011084386402</v>
+        <v>1.000272120113599</v>
       </c>
       <c r="M9">
-        <v>0.9999833740749615</v>
+        <v>0.9995918104965684</v>
       </c>
       <c r="N9">
-        <v>0.9999833740749615</v>
+        <v>0.9995918104965684</v>
       </c>
       <c r="O9">
-        <v>0.9999807880624428</v>
+        <v>0.9995283171545842</v>
       </c>
       <c r="P9">
-        <v>0.9999926108454417</v>
+        <v>0.999818580368912</v>
       </c>
       <c r="Q9">
-        <v>0.9999926108454417</v>
+        <v>0.999818580368912</v>
       </c>
       <c r="R9">
-        <v>0.9999972292306818</v>
+        <v>0.9999319653050839</v>
       </c>
       <c r="S9">
-        <v>0.9999972292306818</v>
+        <v>0.9999319653050839</v>
       </c>
       <c r="T9">
-        <v>0.9999990154670133</v>
+        <v>0.9999758081323021</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000063736986437</v>
+        <v>1.000779728302213</v>
       </c>
       <c r="D10">
-        <v>0.9999474196144628</v>
+        <v>0.9993567217591369</v>
       </c>
       <c r="E10">
-        <v>1.000023900246241</v>
+        <v>1.000292396600199</v>
       </c>
       <c r="F10">
-        <v>1.000023900246241</v>
+        <v>1.000292396600199</v>
       </c>
       <c r="G10">
-        <v>0.9999043973042239</v>
+        <v>0.9988303942280196</v>
       </c>
       <c r="H10">
-        <v>1.000023900246241</v>
+        <v>1.000292396600199</v>
       </c>
       <c r="I10">
-        <v>1.000023900246241</v>
+        <v>1.000292396600199</v>
       </c>
       <c r="J10">
-        <v>0.9999043973042239</v>
+        <v>0.9988303942280196</v>
       </c>
       <c r="K10">
-        <v>1.000023900246241</v>
+        <v>1.000292396600199</v>
       </c>
       <c r="L10">
-        <v>1.000023900246241</v>
+        <v>1.000292396600199</v>
       </c>
       <c r="M10">
-        <v>0.9999641487752323</v>
+        <v>0.9995613954141092</v>
       </c>
       <c r="N10">
-        <v>0.9999641487752323</v>
+        <v>0.9995613954141092</v>
       </c>
       <c r="O10">
-        <v>0.9999585723883091</v>
+        <v>0.9994931708624518</v>
       </c>
       <c r="P10">
-        <v>0.9999840659322352</v>
+        <v>0.9998050624761391</v>
       </c>
       <c r="Q10">
-        <v>0.9999840659322352</v>
+        <v>0.9998050624761391</v>
       </c>
       <c r="R10">
-        <v>0.9999940245107366</v>
+        <v>0.999926896007154</v>
       </c>
       <c r="S10">
-        <v>0.9999940245107366</v>
+        <v>0.999926896007154</v>
       </c>
       <c r="T10">
-        <v>0.9999978757739744</v>
+        <v>0.9999740056816612</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000105724755837</v>
+        <v>1.000126850169606</v>
       </c>
       <c r="D11">
-        <v>0.9999127780501033</v>
+        <v>0.9998953512570201</v>
       </c>
       <c r="E11">
-        <v>1.000039646613527</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="F11">
-        <v>1.000039646613527</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="G11">
-        <v>0.9998414194552877</v>
+        <v>0.9998097279907741</v>
       </c>
       <c r="H11">
-        <v>1.000039646613527</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="I11">
-        <v>1.000039646613527</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="J11">
-        <v>0.9998414194552877</v>
+        <v>0.9998097279907741</v>
       </c>
       <c r="K11">
-        <v>1.000039646613527</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="L11">
-        <v>1.000039646613527</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="M11">
-        <v>0.9999405330344076</v>
+        <v>0.9999286481701904</v>
       </c>
       <c r="N11">
-        <v>0.9999405330344076</v>
+        <v>0.9999286481701904</v>
       </c>
       <c r="O11">
-        <v>0.9999312813729727</v>
+        <v>0.9999175491991337</v>
       </c>
       <c r="P11">
-        <v>0.9999735708941141</v>
+        <v>0.9999682882299959</v>
       </c>
       <c r="Q11">
-        <v>0.9999735708941141</v>
+        <v>0.9999682882299959</v>
       </c>
       <c r="R11">
-        <v>0.9999900898239674</v>
+        <v>0.9999881082598987</v>
       </c>
       <c r="S11">
-        <v>0.9999900898239674</v>
+        <v>0.9999881082598987</v>
       </c>
       <c r="T11">
-        <v>0.9999964770169684</v>
+        <v>0.9999957724110368</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9990629629886892</v>
+        <v>1.000060621856849</v>
       </c>
       <c r="D12">
-        <v>1.000773057607487</v>
+        <v>0.9999499898015494</v>
       </c>
       <c r="E12">
-        <v>0.9996486128627142</v>
+        <v>1.000022732504493</v>
       </c>
       <c r="F12">
-        <v>0.9996486128627142</v>
+        <v>1.000022732504493</v>
       </c>
       <c r="G12">
-        <v>1.001405547539571</v>
+        <v>0.9999090705107346</v>
       </c>
       <c r="H12">
-        <v>0.9996486128627142</v>
+        <v>1.000022732504493</v>
       </c>
       <c r="I12">
-        <v>0.9996486128627142</v>
+        <v>1.000022732504493</v>
       </c>
       <c r="J12">
-        <v>1.001405547539571</v>
+        <v>0.9999090705107346</v>
       </c>
       <c r="K12">
-        <v>0.9996486128627142</v>
+        <v>1.000022732504493</v>
       </c>
       <c r="L12">
-        <v>0.9996486128627142</v>
+        <v>1.000022732504493</v>
       </c>
       <c r="M12">
-        <v>1.000527080201143</v>
+        <v>0.9999659015076141</v>
       </c>
       <c r="N12">
-        <v>1.000527080201143</v>
+        <v>0.9999659015076141</v>
       </c>
       <c r="O12">
-        <v>1.000609072669924</v>
+        <v>0.9999605976055926</v>
       </c>
       <c r="P12">
-        <v>1.000234257755</v>
+        <v>0.9999848451732406</v>
       </c>
       <c r="Q12">
-        <v>1.000234257755</v>
+        <v>0.9999848451732406</v>
       </c>
       <c r="R12">
-        <v>1.000087846531929</v>
+        <v>0.9999943170060538</v>
       </c>
       <c r="S12">
-        <v>1.000087846531929</v>
+        <v>0.9999943170060538</v>
       </c>
       <c r="T12">
-        <v>1.000031234453982</v>
+        <v>0.9999979799471023</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9997580710951542</v>
+        <v>1.000204237837289</v>
       </c>
       <c r="D13">
-        <v>1.000199597022938</v>
+        <v>0.9998315107337573</v>
       </c>
       <c r="E13">
-        <v>0.999909277551643</v>
+        <v>1.000076587799364</v>
       </c>
       <c r="F13">
-        <v>0.999909277551643</v>
+        <v>1.000076587799364</v>
       </c>
       <c r="G13">
-        <v>1.00036290019896</v>
+        <v>0.999693649142805</v>
       </c>
       <c r="H13">
-        <v>0.999909277551643</v>
+        <v>1.000076587799364</v>
       </c>
       <c r="I13">
-        <v>0.999909277551643</v>
+        <v>1.000076587799364</v>
       </c>
       <c r="J13">
-        <v>1.00036290019896</v>
+        <v>0.999693649142805</v>
       </c>
       <c r="K13">
-        <v>0.999909277551643</v>
+        <v>1.000076587799364</v>
       </c>
       <c r="L13">
-        <v>0.999909277551643</v>
+        <v>1.000076587799364</v>
       </c>
       <c r="M13">
-        <v>1.000136088875301</v>
+        <v>0.9998851184710844</v>
       </c>
       <c r="N13">
-        <v>1.000136088875301</v>
+        <v>0.9998851184710844</v>
       </c>
       <c r="O13">
-        <v>1.000157258257847</v>
+        <v>0.9998672492253088</v>
       </c>
       <c r="P13">
-        <v>1.000060485100749</v>
+        <v>0.9999489415805108</v>
       </c>
       <c r="Q13">
-        <v>1.000060485100749</v>
+        <v>0.9999489415805108</v>
       </c>
       <c r="R13">
-        <v>1.000022683213472</v>
+        <v>0.9999808531352241</v>
       </c>
       <c r="S13">
-        <v>1.000022683213472</v>
+        <v>0.9999808531352241</v>
       </c>
       <c r="T13">
-        <v>1.000008066828664</v>
+        <v>0.9999931935186571</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9990630426419195</v>
+        <v>1.00032394992647</v>
       </c>
       <c r="D14">
-        <v>1.000772998997628</v>
+        <v>0.9997327446189679</v>
       </c>
       <c r="E14">
-        <v>0.9996486435848649</v>
+        <v>1.000121481536845</v>
       </c>
       <c r="F14">
-        <v>0.9996486435848649</v>
+        <v>1.000121481536845</v>
       </c>
       <c r="G14">
-        <v>1.001405444837208</v>
+        <v>0.9995140732584461</v>
       </c>
       <c r="H14">
-        <v>0.9996486435848649</v>
+        <v>1.000121481536845</v>
       </c>
       <c r="I14">
-        <v>0.9996486435848649</v>
+        <v>1.000121481536845</v>
       </c>
       <c r="J14">
-        <v>1.001405444837208</v>
+        <v>0.9995140732584461</v>
       </c>
       <c r="K14">
-        <v>0.9996486435848649</v>
+        <v>1.000121481536845</v>
       </c>
       <c r="L14">
-        <v>0.9996486435848649</v>
+        <v>1.000121481536845</v>
       </c>
       <c r="M14">
-        <v>1.000527044211037</v>
+        <v>0.9998177773976453</v>
       </c>
       <c r="N14">
-        <v>1.000527044211037</v>
+        <v>0.9998177773976453</v>
       </c>
       <c r="O14">
-        <v>1.0006090291399</v>
+        <v>0.9997894331380861</v>
       </c>
       <c r="P14">
-        <v>1.000234244002313</v>
+        <v>0.9999190121107118</v>
       </c>
       <c r="Q14">
-        <v>1.000234244002313</v>
+        <v>0.9999190121107118</v>
       </c>
       <c r="R14">
-        <v>1.000087843897951</v>
+        <v>0.999969629467245</v>
       </c>
       <c r="S14">
-        <v>1.000087843897951</v>
+        <v>0.999969629467245</v>
       </c>
       <c r="T14">
-        <v>1.000031236205225</v>
+        <v>0.9999892020690698</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9997580896586302</v>
+        <v>1.000116181152359</v>
       </c>
       <c r="D15">
-        <v>1.00019957926588</v>
+        <v>0.99990415343116</v>
       </c>
       <c r="E15">
-        <v>0.9999092747051428</v>
+        <v>1.000043567388706</v>
       </c>
       <c r="F15">
-        <v>0.9999092747051428</v>
+        <v>1.000043567388706</v>
       </c>
       <c r="G15">
-        <v>1.000362879047983</v>
+        <v>0.9998257314703932</v>
       </c>
       <c r="H15">
-        <v>0.9999092747051428</v>
+        <v>1.000043567388706</v>
       </c>
       <c r="I15">
-        <v>0.9999092747051428</v>
+        <v>1.000043567388706</v>
       </c>
       <c r="J15">
-        <v>1.000362879047983</v>
+        <v>0.9998257314703932</v>
       </c>
       <c r="K15">
-        <v>0.9999092747051428</v>
+        <v>1.000043567388706</v>
       </c>
       <c r="L15">
-        <v>0.9999092747051428</v>
+        <v>1.000043567388706</v>
       </c>
       <c r="M15">
-        <v>1.000136076876563</v>
+        <v>0.9999346494295496</v>
       </c>
       <c r="N15">
-        <v>1.000136076876563</v>
+        <v>0.9999346494295496</v>
       </c>
       <c r="O15">
-        <v>1.000157244339668</v>
+        <v>0.9999244840967531</v>
       </c>
       <c r="P15">
-        <v>1.000060476152756</v>
+        <v>0.9999709554159351</v>
       </c>
       <c r="Q15">
-        <v>1.000060476152756</v>
+        <v>0.9999709554159351</v>
       </c>
       <c r="R15">
-        <v>1.000022675790853</v>
+        <v>0.9999891084091278</v>
       </c>
       <c r="S15">
-        <v>1.000022675790853</v>
+        <v>0.9999891084091278</v>
       </c>
       <c r="T15">
-        <v>1.000008062014653</v>
+        <v>0.9999961280366717</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.002266097256882</v>
+        <v>1.000224285572079</v>
       </c>
       <c r="D16">
-        <v>0.9981304714328451</v>
+        <v>0.999814966908773</v>
       </c>
       <c r="E16">
-        <v>1.000849787892559</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="F16">
-        <v>1.000849787892559</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="G16">
-        <v>0.9966008562469491</v>
+        <v>0.9996635751386809</v>
       </c>
       <c r="H16">
-        <v>1.000849787892559</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="I16">
-        <v>1.000849787892559</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="J16">
-        <v>0.9966008562469491</v>
+        <v>0.9996635751386809</v>
       </c>
       <c r="K16">
-        <v>1.000849787892559</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="L16">
-        <v>1.000849787892559</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="M16">
-        <v>0.9987253220697541</v>
+        <v>0.9998738407272807</v>
       </c>
       <c r="N16">
-        <v>0.9987253220697541</v>
+        <v>0.9998738407272807</v>
       </c>
       <c r="O16">
-        <v>0.9985270385241177</v>
+        <v>0.9998542161211116</v>
       </c>
       <c r="P16">
-        <v>0.9994334773440224</v>
+        <v>0.9999439292568141</v>
       </c>
       <c r="Q16">
-        <v>0.9994334773440224</v>
+        <v>0.9999439292568141</v>
       </c>
       <c r="R16">
-        <v>0.9997875549811566</v>
+        <v>0.9999789735215807</v>
       </c>
       <c r="S16">
-        <v>0.9997875549811566</v>
+        <v>0.9999789735215807</v>
       </c>
       <c r="T16">
-        <v>0.9999244647690588</v>
+        <v>0.9999925244278626</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001854336953717</v>
+        <v>1.000429814260814</v>
       </c>
       <c r="D17">
-        <v>0.9984701736858378</v>
+        <v>0.9996454054326173</v>
       </c>
       <c r="E17">
-        <v>1.000695376418644</v>
+        <v>1.00016117836504</v>
       </c>
       <c r="F17">
-        <v>1.000695376418644</v>
+        <v>1.00016117836504</v>
       </c>
       <c r="G17">
-        <v>0.99721849661588</v>
+        <v>0.999355280713828</v>
       </c>
       <c r="H17">
-        <v>1.000695376418644</v>
+        <v>1.00016117836504</v>
       </c>
       <c r="I17">
-        <v>1.000695376418644</v>
+        <v>1.00016117836504</v>
       </c>
       <c r="J17">
-        <v>0.99721849661588</v>
+        <v>0.999355280713828</v>
       </c>
       <c r="K17">
-        <v>1.000695376418644</v>
+        <v>1.00016117836504</v>
       </c>
       <c r="L17">
-        <v>1.000695376418644</v>
+        <v>1.00016117836504</v>
       </c>
       <c r="M17">
-        <v>0.9989569365172621</v>
+        <v>0.9997582295394342</v>
       </c>
       <c r="N17">
-        <v>0.9989569365172621</v>
+        <v>0.9997582295394342</v>
       </c>
       <c r="O17">
-        <v>0.9987946822401207</v>
+        <v>0.9997206215038285</v>
       </c>
       <c r="P17">
-        <v>0.9995364164843895</v>
+        <v>0.9998925458146362</v>
       </c>
       <c r="Q17">
-        <v>0.9995364164843895</v>
+        <v>0.9998925458146362</v>
       </c>
       <c r="R17">
-        <v>0.9998261564679531</v>
+        <v>0.9999597039522372</v>
       </c>
       <c r="S17">
-        <v>0.9998261564679531</v>
+        <v>0.9999597039522372</v>
       </c>
       <c r="T17">
-        <v>0.9999381894185614</v>
+        <v>0.9999856725837301</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001026372007914</v>
+        <v>1.000630399815264</v>
       </c>
       <c r="D18">
-        <v>0.999153243505149</v>
+        <v>0.9994799261461261</v>
       </c>
       <c r="E18">
-        <v>1.00038488671118</v>
+        <v>1.000236402985848</v>
       </c>
       <c r="F18">
-        <v>1.00038488671118</v>
+        <v>1.000236402985848</v>
       </c>
       <c r="G18">
-        <v>0.9984604434479958</v>
+        <v>0.9990544040369924</v>
       </c>
       <c r="H18">
-        <v>1.00038488671118</v>
+        <v>1.000236402985848</v>
       </c>
       <c r="I18">
-        <v>1.00038488671118</v>
+        <v>1.000236402985848</v>
       </c>
       <c r="J18">
-        <v>0.9984604434479958</v>
+        <v>0.9990544040369924</v>
       </c>
       <c r="K18">
-        <v>1.00038488671118</v>
+        <v>1.000236402985848</v>
       </c>
       <c r="L18">
-        <v>1.00038488671118</v>
+        <v>1.000236402985848</v>
       </c>
       <c r="M18">
-        <v>0.9994226650795877</v>
+        <v>0.9996454035114204</v>
       </c>
       <c r="N18">
-        <v>0.9994226650795877</v>
+        <v>0.9996454035114204</v>
       </c>
       <c r="O18">
-        <v>0.9993328578881081</v>
+        <v>0.9995902443896556</v>
       </c>
       <c r="P18">
-        <v>0.9997434056234517</v>
+        <v>0.9998424033362298</v>
       </c>
       <c r="Q18">
-        <v>0.9997434056234517</v>
+        <v>0.9998424033362298</v>
       </c>
       <c r="R18">
-        <v>0.9999037758953836</v>
+        <v>0.9999409032486344</v>
       </c>
       <c r="S18">
-        <v>0.9999037758953836</v>
+        <v>0.9999409032486344</v>
       </c>
       <c r="T18">
-        <v>0.9999657865157663</v>
+        <v>0.9999789898259879</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001120402469521</v>
+        <v>1.000008283732397</v>
       </c>
       <c r="D19">
-        <v>0.9990756666287486</v>
+        <v>0.9999931687823137</v>
       </c>
       <c r="E19">
-        <v>1.000420147944304</v>
+        <v>1.000003105595152</v>
       </c>
       <c r="F19">
-        <v>1.000420147944304</v>
+        <v>1.000003105595152</v>
       </c>
       <c r="G19">
-        <v>0.9983193957054817</v>
+        <v>0.9999875777957143</v>
       </c>
       <c r="H19">
-        <v>1.000420147944304</v>
+        <v>1.000003105595152</v>
       </c>
       <c r="I19">
-        <v>1.000420147944304</v>
+        <v>1.000003105595152</v>
       </c>
       <c r="J19">
-        <v>0.9983193957054817</v>
+        <v>0.9999875777957143</v>
       </c>
       <c r="K19">
-        <v>1.000420147944304</v>
+        <v>1.000003105595152</v>
       </c>
       <c r="L19">
-        <v>1.000420147944304</v>
+        <v>1.000003105595152</v>
       </c>
       <c r="M19">
-        <v>0.9993697718248926</v>
+        <v>0.9999953416954332</v>
       </c>
       <c r="N19">
-        <v>0.9993697718248926</v>
+        <v>0.9999953416954332</v>
       </c>
       <c r="O19">
-        <v>0.9992717367595113</v>
+        <v>0.9999946173910601</v>
       </c>
       <c r="P19">
-        <v>0.9997198971980296</v>
+        <v>0.9999979296620062</v>
       </c>
       <c r="Q19">
-        <v>0.9997198971980296</v>
+        <v>0.9999979296620062</v>
       </c>
       <c r="R19">
-        <v>0.9998949598845981</v>
+        <v>0.9999992236452927</v>
       </c>
       <c r="S19">
-        <v>0.9998949598845981</v>
+        <v>0.9999992236452927</v>
       </c>
       <c r="T19">
-        <v>0.9999626514394437</v>
+        <v>0.9999997245159801</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000480649996</v>
+        <v>1.000021112258991</v>
       </c>
       <c r="D20">
-        <v>0.9999996063219282</v>
+        <v>0.9999825851559415</v>
       </c>
       <c r="E20">
-        <v>1.000000179589718</v>
+        <v>1.000007916293537</v>
       </c>
       <c r="F20">
-        <v>1.000000179589718</v>
+        <v>1.000007916293537</v>
       </c>
       <c r="G20">
-        <v>0.9999992824364109</v>
+        <v>0.9999683348065951</v>
       </c>
       <c r="H20">
-        <v>1.000000179589718</v>
+        <v>1.000007916293537</v>
       </c>
       <c r="I20">
-        <v>1.000000179589718</v>
+        <v>1.000007916293537</v>
       </c>
       <c r="J20">
-        <v>0.9999992824364109</v>
+        <v>0.9999683348065951</v>
       </c>
       <c r="K20">
-        <v>1.000000179589718</v>
+        <v>1.000007916293537</v>
       </c>
       <c r="L20">
-        <v>1.000000179589718</v>
+        <v>1.000007916293537</v>
       </c>
       <c r="M20">
-        <v>0.9999997310130646</v>
+        <v>0.9999881255500659</v>
       </c>
       <c r="N20">
-        <v>0.9999997310130646</v>
+        <v>0.9999881255500659</v>
       </c>
       <c r="O20">
-        <v>0.9999996894493525</v>
+        <v>0.9999862787520244</v>
       </c>
       <c r="P20">
-        <v>0.9999998805386158</v>
+        <v>0.9999947224645561</v>
       </c>
       <c r="Q20">
-        <v>0.9999998805386158</v>
+        <v>0.9999947224645561</v>
       </c>
       <c r="R20">
-        <v>0.9999999553013914</v>
+        <v>0.9999980209218012</v>
       </c>
       <c r="S20">
-        <v>0.9999999553013914</v>
+        <v>0.9999980209218012</v>
       </c>
       <c r="T20">
-        <v>0.9999999846962483</v>
+        <v>0.9999992968503563</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.00001016109057</v>
+        <v>1.000029559841946</v>
       </c>
       <c r="D21">
-        <v>0.9999916199185668</v>
+        <v>0.9999756160374057</v>
       </c>
       <c r="E21">
-        <v>1.000003809354274</v>
+        <v>1.000011084386402</v>
       </c>
       <c r="F21">
-        <v>1.000003809354274</v>
+        <v>1.000011084386402</v>
       </c>
       <c r="G21">
-        <v>0.9999847616716492</v>
+        <v>0.9999556637635209</v>
       </c>
       <c r="H21">
-        <v>1.000003809354274</v>
+        <v>1.000011084386402</v>
       </c>
       <c r="I21">
-        <v>1.000003809354274</v>
+        <v>1.000011084386402</v>
       </c>
       <c r="J21">
-        <v>0.9999847616716492</v>
+        <v>0.9999556637635209</v>
       </c>
       <c r="K21">
-        <v>1.000003809354274</v>
+        <v>1.000011084386402</v>
       </c>
       <c r="L21">
-        <v>1.000003809354274</v>
+        <v>1.000011084386402</v>
       </c>
       <c r="M21">
-        <v>0.9999942855129615</v>
+        <v>0.9999833740749615</v>
       </c>
       <c r="N21">
-        <v>0.9999942855129615</v>
+        <v>0.9999833740749615</v>
       </c>
       <c r="O21">
-        <v>0.9999933969814966</v>
+        <v>0.9999807880624428</v>
       </c>
       <c r="P21">
-        <v>0.9999974601267323</v>
+        <v>0.9999926108454417</v>
       </c>
       <c r="Q21">
-        <v>0.9999974601267323</v>
+        <v>0.9999926108454417</v>
       </c>
       <c r="R21">
-        <v>0.9999990474336177</v>
+        <v>0.9999972292306818</v>
       </c>
       <c r="S21">
-        <v>0.9999990474336177</v>
+        <v>0.9999972292306818</v>
       </c>
       <c r="T21">
-        <v>0.9999996617906012</v>
+        <v>0.9999990154670133</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000035771917387</v>
+        <v>1.000063736986437</v>
       </c>
       <c r="D22">
-        <v>0.9999704904213608</v>
+        <v>0.9999474196144628</v>
       </c>
       <c r="E22">
-        <v>1.000013415047468</v>
+        <v>1.000023900246241</v>
       </c>
       <c r="F22">
-        <v>1.000013415047468</v>
+        <v>1.000023900246241</v>
       </c>
       <c r="G22">
-        <v>0.9999463461236601</v>
+        <v>0.9999043973042239</v>
       </c>
       <c r="H22">
-        <v>1.000013415047468</v>
+        <v>1.000023900246241</v>
       </c>
       <c r="I22">
-        <v>1.000013415047468</v>
+        <v>1.000023900246241</v>
       </c>
       <c r="J22">
-        <v>0.9999463461236601</v>
+        <v>0.9999043973042239</v>
       </c>
       <c r="K22">
-        <v>1.000013415047468</v>
+        <v>1.000023900246241</v>
       </c>
       <c r="L22">
-        <v>1.000013415047468</v>
+        <v>1.000023900246241</v>
       </c>
       <c r="M22">
-        <v>0.999979880585564</v>
+        <v>0.9999641487752323</v>
       </c>
       <c r="N22">
-        <v>0.999979880585564</v>
+        <v>0.9999641487752323</v>
       </c>
       <c r="O22">
-        <v>0.9999767505308296</v>
+        <v>0.9999585723883091</v>
       </c>
       <c r="P22">
-        <v>0.999991058739532</v>
+        <v>0.9999840659322352</v>
       </c>
       <c r="Q22">
-        <v>0.999991058739532</v>
+        <v>0.9999840659322352</v>
       </c>
       <c r="R22">
-        <v>0.999996647816516</v>
+        <v>0.9999940245107366</v>
       </c>
       <c r="S22">
-        <v>0.999996647816516</v>
+        <v>0.9999940245107366</v>
       </c>
       <c r="T22">
-        <v>0.9999988089341351</v>
+        <v>0.9999978757739744</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000105724755837</v>
+      </c>
+      <c r="D23">
+        <v>0.9999127780501033</v>
+      </c>
+      <c r="E23">
+        <v>1.000039646613527</v>
+      </c>
+      <c r="F23">
+        <v>1.000039646613527</v>
+      </c>
+      <c r="G23">
+        <v>0.9998414194552877</v>
+      </c>
+      <c r="H23">
+        <v>1.000039646613527</v>
+      </c>
+      <c r="I23">
+        <v>1.000039646613527</v>
+      </c>
+      <c r="J23">
+        <v>0.9998414194552877</v>
+      </c>
+      <c r="K23">
+        <v>1.000039646613527</v>
+      </c>
+      <c r="L23">
+        <v>1.000039646613527</v>
+      </c>
+      <c r="M23">
+        <v>0.9999405330344076</v>
+      </c>
+      <c r="N23">
+        <v>0.9999405330344076</v>
+      </c>
+      <c r="O23">
+        <v>0.9999312813729727</v>
+      </c>
+      <c r="P23">
+        <v>0.9999735708941141</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999735708941141</v>
+      </c>
+      <c r="R23">
+        <v>0.9999900898239674</v>
+      </c>
+      <c r="S23">
+        <v>0.9999900898239674</v>
+      </c>
+      <c r="T23">
+        <v>0.9999964770169684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9990629629886892</v>
+      </c>
+      <c r="D24">
+        <v>1.000773057607487</v>
+      </c>
+      <c r="E24">
+        <v>0.9996486128627142</v>
+      </c>
+      <c r="F24">
+        <v>0.9996486128627142</v>
+      </c>
+      <c r="G24">
+        <v>1.001405547539571</v>
+      </c>
+      <c r="H24">
+        <v>0.9996486128627142</v>
+      </c>
+      <c r="I24">
+        <v>0.9996486128627142</v>
+      </c>
+      <c r="J24">
+        <v>1.001405547539571</v>
+      </c>
+      <c r="K24">
+        <v>0.9996486128627142</v>
+      </c>
+      <c r="L24">
+        <v>0.9996486128627142</v>
+      </c>
+      <c r="M24">
+        <v>1.000527080201143</v>
+      </c>
+      <c r="N24">
+        <v>1.000527080201143</v>
+      </c>
+      <c r="O24">
+        <v>1.000609072669924</v>
+      </c>
+      <c r="P24">
+        <v>1.000234257755</v>
+      </c>
+      <c r="Q24">
+        <v>1.000234257755</v>
+      </c>
+      <c r="R24">
+        <v>1.000087846531929</v>
+      </c>
+      <c r="S24">
+        <v>1.000087846531929</v>
+      </c>
+      <c r="T24">
+        <v>1.000031234453982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9997580710951542</v>
+      </c>
+      <c r="D25">
+        <v>1.000199597022938</v>
+      </c>
+      <c r="E25">
+        <v>0.999909277551643</v>
+      </c>
+      <c r="F25">
+        <v>0.999909277551643</v>
+      </c>
+      <c r="G25">
+        <v>1.00036290019896</v>
+      </c>
+      <c r="H25">
+        <v>0.999909277551643</v>
+      </c>
+      <c r="I25">
+        <v>0.999909277551643</v>
+      </c>
+      <c r="J25">
+        <v>1.00036290019896</v>
+      </c>
+      <c r="K25">
+        <v>0.999909277551643</v>
+      </c>
+      <c r="L25">
+        <v>0.999909277551643</v>
+      </c>
+      <c r="M25">
+        <v>1.000136088875301</v>
+      </c>
+      <c r="N25">
+        <v>1.000136088875301</v>
+      </c>
+      <c r="O25">
+        <v>1.000157258257847</v>
+      </c>
+      <c r="P25">
+        <v>1.000060485100749</v>
+      </c>
+      <c r="Q25">
+        <v>1.000060485100749</v>
+      </c>
+      <c r="R25">
+        <v>1.000022683213472</v>
+      </c>
+      <c r="S25">
+        <v>1.000022683213472</v>
+      </c>
+      <c r="T25">
+        <v>1.000008066828664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9990630426419195</v>
+      </c>
+      <c r="D26">
+        <v>1.000772998997628</v>
+      </c>
+      <c r="E26">
+        <v>0.9996486435848649</v>
+      </c>
+      <c r="F26">
+        <v>0.9996486435848649</v>
+      </c>
+      <c r="G26">
+        <v>1.001405444837208</v>
+      </c>
+      <c r="H26">
+        <v>0.9996486435848649</v>
+      </c>
+      <c r="I26">
+        <v>0.9996486435848649</v>
+      </c>
+      <c r="J26">
+        <v>1.001405444837208</v>
+      </c>
+      <c r="K26">
+        <v>0.9996486435848649</v>
+      </c>
+      <c r="L26">
+        <v>0.9996486435848649</v>
+      </c>
+      <c r="M26">
+        <v>1.000527044211037</v>
+      </c>
+      <c r="N26">
+        <v>1.000527044211037</v>
+      </c>
+      <c r="O26">
+        <v>1.0006090291399</v>
+      </c>
+      <c r="P26">
+        <v>1.000234244002313</v>
+      </c>
+      <c r="Q26">
+        <v>1.000234244002313</v>
+      </c>
+      <c r="R26">
+        <v>1.000087843897951</v>
+      </c>
+      <c r="S26">
+        <v>1.000087843897951</v>
+      </c>
+      <c r="T26">
+        <v>1.000031236205225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9997580896586302</v>
+      </c>
+      <c r="D27">
+        <v>1.00019957926588</v>
+      </c>
+      <c r="E27">
+        <v>0.9999092747051428</v>
+      </c>
+      <c r="F27">
+        <v>0.9999092747051428</v>
+      </c>
+      <c r="G27">
+        <v>1.000362879047983</v>
+      </c>
+      <c r="H27">
+        <v>0.9999092747051428</v>
+      </c>
+      <c r="I27">
+        <v>0.9999092747051428</v>
+      </c>
+      <c r="J27">
+        <v>1.000362879047983</v>
+      </c>
+      <c r="K27">
+        <v>0.9999092747051428</v>
+      </c>
+      <c r="L27">
+        <v>0.9999092747051428</v>
+      </c>
+      <c r="M27">
+        <v>1.000136076876563</v>
+      </c>
+      <c r="N27">
+        <v>1.000136076876563</v>
+      </c>
+      <c r="O27">
+        <v>1.000157244339668</v>
+      </c>
+      <c r="P27">
+        <v>1.000060476152756</v>
+      </c>
+      <c r="Q27">
+        <v>1.000060476152756</v>
+      </c>
+      <c r="R27">
+        <v>1.000022675790853</v>
+      </c>
+      <c r="S27">
+        <v>1.000022675790853</v>
+      </c>
+      <c r="T27">
+        <v>1.000008062014653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.002266097256882</v>
+      </c>
+      <c r="D28">
+        <v>0.9981304714328451</v>
+      </c>
+      <c r="E28">
+        <v>1.000849787892559</v>
+      </c>
+      <c r="F28">
+        <v>1.000849787892559</v>
+      </c>
+      <c r="G28">
+        <v>0.9966008562469491</v>
+      </c>
+      <c r="H28">
+        <v>1.000849787892559</v>
+      </c>
+      <c r="I28">
+        <v>1.000849787892559</v>
+      </c>
+      <c r="J28">
+        <v>0.9966008562469491</v>
+      </c>
+      <c r="K28">
+        <v>1.000849787892559</v>
+      </c>
+      <c r="L28">
+        <v>1.000849787892559</v>
+      </c>
+      <c r="M28">
+        <v>0.9987253220697541</v>
+      </c>
+      <c r="N28">
+        <v>0.9987253220697541</v>
+      </c>
+      <c r="O28">
+        <v>0.9985270385241177</v>
+      </c>
+      <c r="P28">
+        <v>0.9994334773440224</v>
+      </c>
+      <c r="Q28">
+        <v>0.9994334773440224</v>
+      </c>
+      <c r="R28">
+        <v>0.9997875549811566</v>
+      </c>
+      <c r="S28">
+        <v>0.9997875549811566</v>
+      </c>
+      <c r="T28">
+        <v>0.9999244647690588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.001854336953717</v>
+      </c>
+      <c r="D29">
+        <v>0.9984701736858378</v>
+      </c>
+      <c r="E29">
+        <v>1.000695376418644</v>
+      </c>
+      <c r="F29">
+        <v>1.000695376418644</v>
+      </c>
+      <c r="G29">
+        <v>0.99721849661588</v>
+      </c>
+      <c r="H29">
+        <v>1.000695376418644</v>
+      </c>
+      <c r="I29">
+        <v>1.000695376418644</v>
+      </c>
+      <c r="J29">
+        <v>0.99721849661588</v>
+      </c>
+      <c r="K29">
+        <v>1.000695376418644</v>
+      </c>
+      <c r="L29">
+        <v>1.000695376418644</v>
+      </c>
+      <c r="M29">
+        <v>0.9989569365172621</v>
+      </c>
+      <c r="N29">
+        <v>0.9989569365172621</v>
+      </c>
+      <c r="O29">
+        <v>0.9987946822401207</v>
+      </c>
+      <c r="P29">
+        <v>0.9995364164843895</v>
+      </c>
+      <c r="Q29">
+        <v>0.9995364164843895</v>
+      </c>
+      <c r="R29">
+        <v>0.9998261564679531</v>
+      </c>
+      <c r="S29">
+        <v>0.9998261564679531</v>
+      </c>
+      <c r="T29">
+        <v>0.9999381894185614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001026372007914</v>
+      </c>
+      <c r="D30">
+        <v>0.999153243505149</v>
+      </c>
+      <c r="E30">
+        <v>1.00038488671118</v>
+      </c>
+      <c r="F30">
+        <v>1.00038488671118</v>
+      </c>
+      <c r="G30">
+        <v>0.9984604434479958</v>
+      </c>
+      <c r="H30">
+        <v>1.00038488671118</v>
+      </c>
+      <c r="I30">
+        <v>1.00038488671118</v>
+      </c>
+      <c r="J30">
+        <v>0.9984604434479958</v>
+      </c>
+      <c r="K30">
+        <v>1.00038488671118</v>
+      </c>
+      <c r="L30">
+        <v>1.00038488671118</v>
+      </c>
+      <c r="M30">
+        <v>0.9994226650795877</v>
+      </c>
+      <c r="N30">
+        <v>0.9994226650795877</v>
+      </c>
+      <c r="O30">
+        <v>0.9993328578881081</v>
+      </c>
+      <c r="P30">
+        <v>0.9997434056234517</v>
+      </c>
+      <c r="Q30">
+        <v>0.9997434056234517</v>
+      </c>
+      <c r="R30">
+        <v>0.9999037758953836</v>
+      </c>
+      <c r="S30">
+        <v>0.9999037758953836</v>
+      </c>
+      <c r="T30">
+        <v>0.9999657865157663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.001120402469521</v>
+      </c>
+      <c r="D31">
+        <v>0.9990756666287486</v>
+      </c>
+      <c r="E31">
+        <v>1.000420147944304</v>
+      </c>
+      <c r="F31">
+        <v>1.000420147944304</v>
+      </c>
+      <c r="G31">
+        <v>0.9983193957054817</v>
+      </c>
+      <c r="H31">
+        <v>1.000420147944304</v>
+      </c>
+      <c r="I31">
+        <v>1.000420147944304</v>
+      </c>
+      <c r="J31">
+        <v>0.9983193957054817</v>
+      </c>
+      <c r="K31">
+        <v>1.000420147944304</v>
+      </c>
+      <c r="L31">
+        <v>1.000420147944304</v>
+      </c>
+      <c r="M31">
+        <v>0.9993697718248926</v>
+      </c>
+      <c r="N31">
+        <v>0.9993697718248926</v>
+      </c>
+      <c r="O31">
+        <v>0.9992717367595113</v>
+      </c>
+      <c r="P31">
+        <v>0.9997198971980296</v>
+      </c>
+      <c r="Q31">
+        <v>0.9997198971980296</v>
+      </c>
+      <c r="R31">
+        <v>0.9998949598845981</v>
+      </c>
+      <c r="S31">
+        <v>0.9998949598845981</v>
+      </c>
+      <c r="T31">
+        <v>0.9999626514394437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.0026814</v>
+      </c>
+      <c r="D32">
+        <v>0.9977878467123287</v>
+      </c>
+      <c r="E32">
+        <v>1.001005527397261</v>
+      </c>
+      <c r="F32">
+        <v>1.001005527397261</v>
+      </c>
+      <c r="G32">
+        <v>0.9959779021917807</v>
+      </c>
+      <c r="H32">
+        <v>1.001005527397261</v>
+      </c>
+      <c r="I32">
+        <v>1.001005527397261</v>
+      </c>
+      <c r="J32">
+        <v>0.9959779021917807</v>
+      </c>
+      <c r="K32">
+        <v>1.001005527397261</v>
+      </c>
+      <c r="L32">
+        <v>1.001005527397261</v>
+      </c>
+      <c r="M32">
+        <v>0.9984917147945207</v>
+      </c>
+      <c r="N32">
+        <v>0.9984917147945207</v>
+      </c>
+      <c r="O32">
+        <v>0.9982570921004568</v>
+      </c>
+      <c r="P32">
+        <v>0.9993296523287674</v>
+      </c>
+      <c r="Q32">
+        <v>0.9993296523287674</v>
+      </c>
+      <c r="R32">
+        <v>0.9997486210958907</v>
+      </c>
+      <c r="S32">
+        <v>0.9997486210958907</v>
+      </c>
+      <c r="T32">
+        <v>0.9999106218493153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.001211336315789</v>
+      </c>
+      <c r="D33">
+        <v>0.9990006547368421</v>
+      </c>
+      <c r="E33">
+        <v>1.00045425</v>
+      </c>
+      <c r="F33">
+        <v>1.00045425</v>
+      </c>
+      <c r="G33">
+        <v>0.9981830136842104</v>
+      </c>
+      <c r="H33">
+        <v>1.00045425</v>
+      </c>
+      <c r="I33">
+        <v>1.00045425</v>
+      </c>
+      <c r="J33">
+        <v>0.9981830136842104</v>
+      </c>
+      <c r="K33">
+        <v>1.00045425</v>
+      </c>
+      <c r="L33">
+        <v>1.00045425</v>
+      </c>
+      <c r="M33">
+        <v>0.9993186318421052</v>
+      </c>
+      <c r="N33">
+        <v>0.9993186318421052</v>
+      </c>
+      <c r="O33">
+        <v>0.9992126394736842</v>
+      </c>
+      <c r="P33">
+        <v>0.9996971712280702</v>
+      </c>
+      <c r="Q33">
+        <v>0.9996971712280702</v>
+      </c>
+      <c r="R33">
+        <v>0.9998864409210527</v>
+      </c>
+      <c r="S33">
+        <v>0.9998864409210527</v>
+      </c>
+      <c r="T33">
+        <v>0.9999596257894737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.001211267894737</v>
+      </c>
+      <c r="D34">
+        <v>0.9990007015789473</v>
+      </c>
+      <c r="E34">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="F34">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="G34">
+        <v>0.9981830857894738</v>
+      </c>
+      <c r="H34">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="I34">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="J34">
+        <v>0.9981830857894738</v>
+      </c>
+      <c r="K34">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="L34">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="M34">
+        <v>0.9993186544736842</v>
+      </c>
+      <c r="N34">
+        <v>0.9993186544736842</v>
+      </c>
+      <c r="O34">
+        <v>0.9992126701754386</v>
+      </c>
+      <c r="P34">
+        <v>0.999697177368421</v>
+      </c>
+      <c r="Q34">
+        <v>0.999697177368421</v>
+      </c>
+      <c r="R34">
+        <v>0.9998864388157893</v>
+      </c>
+      <c r="S34">
+        <v>0.9998864388157893</v>
+      </c>
+      <c r="T34">
+        <v>0.9999596207894735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.00407796235312</v>
+      </c>
+      <c r="D35">
+        <v>0.9966356819812342</v>
+      </c>
+      <c r="E35">
+        <v>1.001529234584023</v>
+      </c>
+      <c r="F35">
+        <v>1.001529234584023</v>
+      </c>
+      <c r="G35">
+        <v>0.9938830622970808</v>
+      </c>
+      <c r="H35">
+        <v>1.001529234584023</v>
+      </c>
+      <c r="I35">
+        <v>1.001529234584023</v>
+      </c>
+      <c r="J35">
+        <v>0.9938830622970808</v>
+      </c>
+      <c r="K35">
+        <v>1.001529234584023</v>
+      </c>
+      <c r="L35">
+        <v>1.001529234584023</v>
+      </c>
+      <c r="M35">
+        <v>0.9977061484405521</v>
+      </c>
+      <c r="N35">
+        <v>0.9977061484405521</v>
+      </c>
+      <c r="O35">
+        <v>0.9973493262874461</v>
+      </c>
+      <c r="P35">
+        <v>0.9989805104883759</v>
+      </c>
+      <c r="Q35">
+        <v>0.9989805104883759</v>
+      </c>
+      <c r="R35">
+        <v>0.9996176915122877</v>
+      </c>
+      <c r="S35">
+        <v>0.9996176915122877</v>
+      </c>
+      <c r="T35">
+        <v>0.9998640683972507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000480649996</v>
+      </c>
+      <c r="D36">
+        <v>0.9999996063219282</v>
+      </c>
+      <c r="E36">
+        <v>1.000000179589718</v>
+      </c>
+      <c r="F36">
+        <v>1.000000179589718</v>
+      </c>
+      <c r="G36">
+        <v>0.9999992824364109</v>
+      </c>
+      <c r="H36">
+        <v>1.000000179589718</v>
+      </c>
+      <c r="I36">
+        <v>1.000000179589718</v>
+      </c>
+      <c r="J36">
+        <v>0.9999992824364109</v>
+      </c>
+      <c r="K36">
+        <v>1.000000179589718</v>
+      </c>
+      <c r="L36">
+        <v>1.000000179589718</v>
+      </c>
+      <c r="M36">
+        <v>0.9999997310130646</v>
+      </c>
+      <c r="N36">
+        <v>0.9999997310130646</v>
+      </c>
+      <c r="O36">
+        <v>0.9999996894493525</v>
+      </c>
+      <c r="P36">
+        <v>0.9999998805386158</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999998805386158</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999553013914</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999553013914</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999846962483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.00001016109057</v>
+      </c>
+      <c r="D37">
+        <v>0.9999916199185668</v>
+      </c>
+      <c r="E37">
+        <v>1.000003809354274</v>
+      </c>
+      <c r="F37">
+        <v>1.000003809354274</v>
+      </c>
+      <c r="G37">
+        <v>0.9999847616716492</v>
+      </c>
+      <c r="H37">
+        <v>1.000003809354274</v>
+      </c>
+      <c r="I37">
+        <v>1.000003809354274</v>
+      </c>
+      <c r="J37">
+        <v>0.9999847616716492</v>
+      </c>
+      <c r="K37">
+        <v>1.000003809354274</v>
+      </c>
+      <c r="L37">
+        <v>1.000003809354274</v>
+      </c>
+      <c r="M37">
+        <v>0.9999942855129615</v>
+      </c>
+      <c r="N37">
+        <v>0.9999942855129615</v>
+      </c>
+      <c r="O37">
+        <v>0.9999933969814966</v>
+      </c>
+      <c r="P37">
+        <v>0.9999974601267323</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999974601267323</v>
+      </c>
+      <c r="R37">
+        <v>0.9999990474336177</v>
+      </c>
+      <c r="S37">
+        <v>0.9999990474336177</v>
+      </c>
+      <c r="T37">
+        <v>0.9999996617906012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000035771917387</v>
+      </c>
+      <c r="D38">
+        <v>0.9999704904213608</v>
+      </c>
+      <c r="E38">
+        <v>1.000013415047468</v>
+      </c>
+      <c r="F38">
+        <v>1.000013415047468</v>
+      </c>
+      <c r="G38">
+        <v>0.9999463461236601</v>
+      </c>
+      <c r="H38">
+        <v>1.000013415047468</v>
+      </c>
+      <c r="I38">
+        <v>1.000013415047468</v>
+      </c>
+      <c r="J38">
+        <v>0.9999463461236601</v>
+      </c>
+      <c r="K38">
+        <v>1.000013415047468</v>
+      </c>
+      <c r="L38">
+        <v>1.000013415047468</v>
+      </c>
+      <c r="M38">
+        <v>0.999979880585564</v>
+      </c>
+      <c r="N38">
+        <v>0.999979880585564</v>
+      </c>
+      <c r="O38">
+        <v>0.9999767505308296</v>
+      </c>
+      <c r="P38">
+        <v>0.999991058739532</v>
+      </c>
+      <c r="Q38">
+        <v>0.999991058739532</v>
+      </c>
+      <c r="R38">
+        <v>0.999996647816516</v>
+      </c>
+      <c r="S38">
+        <v>0.999996647816516</v>
+      </c>
+      <c r="T38">
+        <v>0.9999988089341351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.00008380236669</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9999308683565417</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000031427609705</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000031427609705</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9998743045294539</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000031427609705</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000031427609705</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9998743045294539</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000031427609705</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000031427609705</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9999528660695796</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9999528660695796</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.999945533498567</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999790532496213</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999790532496213</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999921468396422</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999921468396422</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999972096803001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000381875700334</v>
+      </c>
+      <c r="D40">
+        <v>0.9996849578140595</v>
+      </c>
+      <c r="E40">
+        <v>1.000143204880407</v>
+      </c>
+      <c r="F40">
+        <v>1.000143204880407</v>
+      </c>
+      <c r="G40">
+        <v>0.9994271950883702</v>
+      </c>
+      <c r="H40">
+        <v>1.000143204880407</v>
+      </c>
+      <c r="I40">
+        <v>1.000143204880407</v>
+      </c>
+      <c r="J40">
+        <v>0.9994271950883702</v>
+      </c>
+      <c r="K40">
+        <v>1.000143204880407</v>
+      </c>
+      <c r="L40">
+        <v>1.000143204880407</v>
+      </c>
+      <c r="M40">
+        <v>0.9997851999843888</v>
+      </c>
+      <c r="N40">
+        <v>0.9997851999843888</v>
+      </c>
+      <c r="O40">
+        <v>0.9997517859276123</v>
+      </c>
+      <c r="P40">
+        <v>0.9999045349497283</v>
+      </c>
+      <c r="Q40">
+        <v>0.9999045349497283</v>
+      </c>
+      <c r="R40">
+        <v>0.999964202432398</v>
+      </c>
+      <c r="S40">
+        <v>0.999964202432398</v>
+      </c>
+      <c r="T40">
+        <v>0.9999872738739976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9997758900040966</v>
+      </c>
+      <c r="D41">
+        <v>1.000184893214848</v>
+      </c>
+      <c r="E41">
+        <v>0.9999159586971654</v>
+      </c>
+      <c r="F41">
+        <v>0.9999159586971654</v>
+      </c>
+      <c r="G41">
+        <v>1.000336165617625</v>
+      </c>
+      <c r="H41">
+        <v>0.9999159586971654</v>
+      </c>
+      <c r="I41">
+        <v>0.9999159586971654</v>
+      </c>
+      <c r="J41">
+        <v>1.000336165617625</v>
+      </c>
+      <c r="K41">
+        <v>0.9999159586971654</v>
+      </c>
+      <c r="L41">
+        <v>0.9999159586971654</v>
+      </c>
+      <c r="M41">
+        <v>1.000126062157395</v>
+      </c>
+      <c r="N41">
+        <v>1.000126062157395</v>
+      </c>
+      <c r="O41">
+        <v>1.00014567250988</v>
+      </c>
+      <c r="P41">
+        <v>1.000056027670652</v>
+      </c>
+      <c r="Q41">
+        <v>1.000056027670652</v>
+      </c>
+      <c r="R41">
+        <v>1.00002101042728</v>
+      </c>
+      <c r="S41">
+        <v>1.00002101042728</v>
+      </c>
+      <c r="T41">
+        <v>1.000007470821344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.00148526075131</v>
+      </c>
+      <c r="D42">
+        <v>0.9987746630315369</v>
+      </c>
+      <c r="E42">
+        <v>1.000556977069289</v>
+      </c>
+      <c r="F42">
+        <v>1.000556977069289</v>
+      </c>
+      <c r="G42">
+        <v>0.9977721121846128</v>
+      </c>
+      <c r="H42">
+        <v>1.000556977069289</v>
+      </c>
+      <c r="I42">
+        <v>1.000556977069289</v>
+      </c>
+      <c r="J42">
+        <v>0.9977721121846128</v>
+      </c>
+      <c r="K42">
+        <v>1.000556977069289</v>
+      </c>
+      <c r="L42">
+        <v>1.000556977069289</v>
+      </c>
+      <c r="M42">
+        <v>0.999164544626951</v>
+      </c>
+      <c r="N42">
+        <v>0.999164544626951</v>
+      </c>
+      <c r="O42">
+        <v>0.9990345840951463</v>
+      </c>
+      <c r="P42">
+        <v>0.999628688774397</v>
+      </c>
+      <c r="Q42">
+        <v>0.999628688774397</v>
+      </c>
+      <c r="R42">
+        <v>0.99986076084812</v>
+      </c>
+      <c r="S42">
+        <v>0.99986076084812</v>
+      </c>
+      <c r="T42">
+        <v>0.9999504945292212</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000043567388706</v>
+        <v>1.000021112258991</v>
       </c>
       <c r="D3">
-        <v>0.9998257314703932</v>
+        <v>0.9999825851559415</v>
       </c>
       <c r="E3">
-        <v>1.000043567388706</v>
+        <v>1.000007916293537</v>
       </c>
       <c r="F3">
-        <v>1.000043567388706</v>
+        <v>1.000007916293537</v>
       </c>
       <c r="G3">
-        <v>1.000116181152359</v>
+        <v>0.9999683348065951</v>
       </c>
       <c r="H3">
-        <v>0.99990415343116</v>
+        <v>1.000007916293537</v>
       </c>
       <c r="I3">
-        <v>1.000043567388706</v>
+        <v>1.000007916293537</v>
       </c>
       <c r="J3">
-        <v>0.9998257314703932</v>
+        <v>0.9999683348065951</v>
       </c>
       <c r="K3">
-        <v>1.000043567388706</v>
+        <v>1.000007916293537</v>
       </c>
       <c r="L3">
-        <v>1.000043567388706</v>
+        <v>1.000007916293537</v>
       </c>
       <c r="M3">
-        <v>0.9999346494295496</v>
+        <v>0.9999881255500659</v>
       </c>
       <c r="N3">
-        <v>0.9999346494295496</v>
+        <v>0.9999881255500659</v>
       </c>
       <c r="O3">
-        <v>0.9999244840967531</v>
+        <v>0.9999862787520244</v>
       </c>
       <c r="P3">
-        <v>0.9999709554159351</v>
+        <v>0.9999947224645561</v>
       </c>
       <c r="Q3">
-        <v>0.9999709554159351</v>
+        <v>0.9999947224645561</v>
       </c>
       <c r="R3">
-        <v>0.9999891084091278</v>
+        <v>0.9999980209218012</v>
       </c>
       <c r="S3">
-        <v>0.9999891084091278</v>
+        <v>0.9999980209218012</v>
       </c>
       <c r="T3">
-        <v>0.9999961280366717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999992968503563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000084106315881</v>
+        <v>1.000381875700334</v>
       </c>
       <c r="D4">
-        <v>0.9996635751386809</v>
+        <v>0.9996849578140595</v>
       </c>
       <c r="E4">
-        <v>1.000084106315881</v>
+        <v>1.000143204880407</v>
       </c>
       <c r="F4">
-        <v>1.000084106315881</v>
+        <v>1.000143204880407</v>
       </c>
       <c r="G4">
-        <v>1.000224285572079</v>
+        <v>0.9994271950883702</v>
       </c>
       <c r="H4">
-        <v>0.999814966908773</v>
+        <v>1.000143204880407</v>
       </c>
       <c r="I4">
-        <v>1.000084106315881</v>
+        <v>1.000143204880407</v>
       </c>
       <c r="J4">
-        <v>0.9996635751386809</v>
+        <v>0.9994271950883702</v>
       </c>
       <c r="K4">
-        <v>1.000084106315881</v>
+        <v>1.000143204880407</v>
       </c>
       <c r="L4">
-        <v>1.000084106315881</v>
+        <v>1.000143204880407</v>
       </c>
       <c r="M4">
-        <v>0.9998738407272807</v>
+        <v>0.9997851999843888</v>
       </c>
       <c r="N4">
-        <v>0.9998738407272807</v>
+        <v>0.9997851999843888</v>
       </c>
       <c r="O4">
-        <v>0.9998542161211116</v>
+        <v>0.9997517859276123</v>
       </c>
       <c r="P4">
-        <v>0.9999439292568141</v>
+        <v>0.9999045349497283</v>
       </c>
       <c r="Q4">
-        <v>0.9999439292568141</v>
+        <v>0.9999045349497283</v>
       </c>
       <c r="R4">
-        <v>0.9999789735215807</v>
+        <v>0.999964202432398</v>
       </c>
       <c r="S4">
-        <v>0.9999789735215807</v>
+        <v>0.999964202432398</v>
       </c>
       <c r="T4">
-        <v>0.9999925244278626</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999872738739976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00016117836504</v>
+        <v>1.0012156115634</v>
       </c>
       <c r="D5">
-        <v>0.999355280713828</v>
+        <v>0.9989971220389099</v>
       </c>
       <c r="E5">
-        <v>1.00016117836504</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="F5">
-        <v>1.00016117836504</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="G5">
-        <v>1.000429814260814</v>
+        <v>0.9981765845388988</v>
       </c>
       <c r="H5">
-        <v>0.9996454054326173</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="I5">
-        <v>1.00016117836504</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="J5">
-        <v>0.999355280713828</v>
+        <v>0.9981765845388988</v>
       </c>
       <c r="K5">
-        <v>1.00016117836504</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="L5">
-        <v>1.00016117836504</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="M5">
-        <v>0.9997582295394342</v>
+        <v>0.9993162182132532</v>
       </c>
       <c r="N5">
-        <v>0.9997582295394342</v>
+        <v>0.9993162182132532</v>
       </c>
       <c r="O5">
-        <v>0.9997206215038285</v>
+        <v>0.9992098528218055</v>
       </c>
       <c r="P5">
-        <v>0.9998925458146362</v>
+        <v>0.9996960961047048</v>
       </c>
       <c r="Q5">
-        <v>0.9998925458146362</v>
+        <v>0.9996960961047048</v>
       </c>
       <c r="R5">
-        <v>0.9999597039522372</v>
+        <v>0.9998860350504305</v>
       </c>
       <c r="S5">
-        <v>0.9999597039522372</v>
+        <v>0.9998860350504305</v>
       </c>
       <c r="T5">
-        <v>0.9999856725837301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9999594789673386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000236402985848</v>
+        <v>1.00407796235312</v>
       </c>
       <c r="D6">
-        <v>0.9990544040369924</v>
+        <v>0.9966356819812342</v>
       </c>
       <c r="E6">
-        <v>1.000236402985848</v>
+        <v>1.001529234584023</v>
       </c>
       <c r="F6">
-        <v>1.000236402985848</v>
+        <v>1.001529234584023</v>
       </c>
       <c r="G6">
-        <v>1.000630399815264</v>
+        <v>0.9938830622970808</v>
       </c>
       <c r="H6">
-        <v>0.9994799261461261</v>
+        <v>1.001529234584023</v>
       </c>
       <c r="I6">
-        <v>1.000236402985848</v>
+        <v>1.001529234584023</v>
       </c>
       <c r="J6">
-        <v>0.9990544040369924</v>
+        <v>0.9938830622970808</v>
       </c>
       <c r="K6">
-        <v>1.000236402985848</v>
+        <v>1.001529234584023</v>
       </c>
       <c r="L6">
-        <v>1.000236402985848</v>
+        <v>1.001529234584023</v>
       </c>
       <c r="M6">
-        <v>0.9996454035114204</v>
+        <v>0.9977061484405521</v>
       </c>
       <c r="N6">
-        <v>0.9996454035114204</v>
+        <v>0.9977061484405521</v>
       </c>
       <c r="O6">
-        <v>0.9995902443896556</v>
+        <v>0.9973493262874461</v>
       </c>
       <c r="P6">
-        <v>0.9998424033362298</v>
+        <v>0.9989805104883759</v>
       </c>
       <c r="Q6">
-        <v>0.9998424033362298</v>
+        <v>0.9989805104883759</v>
       </c>
       <c r="R6">
-        <v>0.9999409032486344</v>
+        <v>0.9996176915122877</v>
       </c>
       <c r="S6">
-        <v>0.9999409032486344</v>
+        <v>0.9996176915122877</v>
       </c>
       <c r="T6">
-        <v>0.9999789898259879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9998640683972507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000003105595152</v>
+        <v>1.000126850169606</v>
       </c>
       <c r="D7">
-        <v>0.9999875777957143</v>
+        <v>0.9998953512570201</v>
       </c>
       <c r="E7">
-        <v>1.000003105595152</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="F7">
-        <v>1.000003105595152</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="G7">
-        <v>1.000008283732397</v>
+        <v>0.9998097279907741</v>
       </c>
       <c r="H7">
-        <v>0.9999931687823137</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="I7">
-        <v>1.000003105595152</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="J7">
-        <v>0.9999875777957143</v>
+        <v>0.9998097279907741</v>
       </c>
       <c r="K7">
-        <v>1.000003105595152</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="L7">
-        <v>1.000003105595152</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="M7">
-        <v>0.9999953416954332</v>
+        <v>0.9999286481701904</v>
       </c>
       <c r="N7">
-        <v>0.9999953416954332</v>
+        <v>0.9999286481701904</v>
       </c>
       <c r="O7">
-        <v>0.9999946173910601</v>
+        <v>0.9999175491991337</v>
       </c>
       <c r="P7">
-        <v>0.9999979296620062</v>
+        <v>0.9999682882299959</v>
       </c>
       <c r="Q7">
-        <v>0.9999979296620062</v>
+        <v>0.9999682882299959</v>
       </c>
       <c r="R7">
-        <v>0.9999992236452927</v>
+        <v>0.9999881082598987</v>
       </c>
       <c r="S7">
-        <v>0.9999992236452927</v>
+        <v>0.9999881082598987</v>
       </c>
       <c r="T7">
-        <v>0.9999997245159801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999957724110368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000007916293537</v>
+        <v>1.00001016109057</v>
       </c>
       <c r="D8">
-        <v>0.9999683348065951</v>
+        <v>0.9999916199185668</v>
       </c>
       <c r="E8">
-        <v>1.000007916293537</v>
+        <v>1.000003809354274</v>
       </c>
       <c r="F8">
-        <v>1.000007916293537</v>
+        <v>1.000003809354274</v>
       </c>
       <c r="G8">
-        <v>1.000021112258991</v>
+        <v>0.9999847616716492</v>
       </c>
       <c r="H8">
-        <v>0.9999825851559415</v>
+        <v>1.000003809354274</v>
       </c>
       <c r="I8">
-        <v>1.000007916293537</v>
+        <v>1.000003809354274</v>
       </c>
       <c r="J8">
-        <v>0.9999683348065951</v>
+        <v>0.9999847616716492</v>
       </c>
       <c r="K8">
-        <v>1.000007916293537</v>
+        <v>1.000003809354274</v>
       </c>
       <c r="L8">
-        <v>1.000007916293537</v>
+        <v>1.000003809354274</v>
       </c>
       <c r="M8">
-        <v>0.9999881255500659</v>
+        <v>0.9999942855129615</v>
       </c>
       <c r="N8">
-        <v>0.9999881255500659</v>
+        <v>0.9999942855129615</v>
       </c>
       <c r="O8">
-        <v>0.9999862787520244</v>
+        <v>0.9999933969814966</v>
       </c>
       <c r="P8">
-        <v>0.9999947224645561</v>
+        <v>0.9999974601267323</v>
       </c>
       <c r="Q8">
-        <v>0.9999947224645561</v>
+        <v>0.9999974601267323</v>
       </c>
       <c r="R8">
-        <v>0.9999980209218012</v>
+        <v>0.9999990474336177</v>
       </c>
       <c r="S8">
-        <v>0.9999980209218012</v>
+        <v>0.9999990474336177</v>
       </c>
       <c r="T8">
-        <v>0.9999992968503563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999996617906012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000011084386402</v>
+        <v>1.000224285572079</v>
       </c>
       <c r="D9">
-        <v>0.9999556637635209</v>
+        <v>0.999814966908773</v>
       </c>
       <c r="E9">
-        <v>1.000011084386402</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="F9">
-        <v>1.000011084386402</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="G9">
-        <v>1.000029559841946</v>
+        <v>0.9996635751386809</v>
       </c>
       <c r="H9">
-        <v>0.9999756160374057</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="I9">
-        <v>1.000011084386402</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="J9">
-        <v>0.9999556637635209</v>
+        <v>0.9996635751386809</v>
       </c>
       <c r="K9">
-        <v>1.000011084386402</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="L9">
-        <v>1.000011084386402</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="M9">
-        <v>0.9999833740749615</v>
+        <v>0.9998738407272807</v>
       </c>
       <c r="N9">
-        <v>0.9999833740749615</v>
+        <v>0.9998738407272807</v>
       </c>
       <c r="O9">
-        <v>0.9999807880624428</v>
+        <v>0.9998542161211116</v>
       </c>
       <c r="P9">
-        <v>0.9999926108454417</v>
+        <v>0.9999439292568141</v>
       </c>
       <c r="Q9">
-        <v>0.9999926108454417</v>
+        <v>0.9999439292568141</v>
       </c>
       <c r="R9">
-        <v>0.9999972292306818</v>
+        <v>0.9999789735215807</v>
       </c>
       <c r="S9">
-        <v>0.9999972292306818</v>
+        <v>0.9999789735215807</v>
       </c>
       <c r="T9">
-        <v>0.9999990154670133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999925244278626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000023900246241</v>
+        <v>1.004138656533373</v>
       </c>
       <c r="D10">
-        <v>0.9999043973042239</v>
+        <v>0.996585608406824</v>
       </c>
       <c r="E10">
-        <v>1.000023900246241</v>
+        <v>1.001551994253747</v>
       </c>
       <c r="F10">
-        <v>1.000023900246241</v>
+        <v>1.001551994253747</v>
       </c>
       <c r="G10">
-        <v>1.000063736986436</v>
+        <v>0.9937920207342078</v>
       </c>
       <c r="H10">
-        <v>0.9999474196144628</v>
+        <v>1.001551994253747</v>
       </c>
       <c r="I10">
-        <v>1.000023900246241</v>
+        <v>1.001551994253747</v>
       </c>
       <c r="J10">
-        <v>0.9999043973042239</v>
+        <v>0.9937920207342078</v>
       </c>
       <c r="K10">
-        <v>1.000023900246241</v>
+        <v>1.001551994253747</v>
       </c>
       <c r="L10">
-        <v>1.000023900246241</v>
+        <v>1.001551994253747</v>
       </c>
       <c r="M10">
-        <v>0.9999641487752323</v>
+        <v>0.9976720074939773</v>
       </c>
       <c r="N10">
-        <v>0.9999641487752323</v>
+        <v>0.9976720074939773</v>
       </c>
       <c r="O10">
-        <v>0.9999585723883091</v>
+        <v>0.9973098744649262</v>
       </c>
       <c r="P10">
-        <v>0.9999840659322352</v>
+        <v>0.9989653364139004</v>
       </c>
       <c r="Q10">
-        <v>0.9999840659322352</v>
+        <v>0.9989653364139004</v>
       </c>
       <c r="R10">
-        <v>0.9999940245107366</v>
+        <v>0.999612000873862</v>
       </c>
       <c r="S10">
-        <v>0.9999940245107366</v>
+        <v>0.999612000873862</v>
       </c>
       <c r="T10">
-        <v>0.9999978757739743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9998620447392742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000039646613527</v>
+        <v>1.000359993405002</v>
       </c>
       <c r="D11">
-        <v>0.9998414194552877</v>
+        <v>0.9997030099413553</v>
       </c>
       <c r="E11">
-        <v>1.000039646613527</v>
+        <v>1.000135001262843</v>
       </c>
       <c r="F11">
-        <v>1.000039646613527</v>
+        <v>1.000135001262843</v>
       </c>
       <c r="G11">
-        <v>1.000105724755837</v>
+        <v>0.9994600143725636</v>
       </c>
       <c r="H11">
-        <v>0.9999127780501033</v>
+        <v>1.000135001262843</v>
       </c>
       <c r="I11">
-        <v>1.000039646613527</v>
+        <v>1.000135001262843</v>
       </c>
       <c r="J11">
-        <v>0.9998414194552877</v>
+        <v>0.9994600143725636</v>
       </c>
       <c r="K11">
-        <v>1.000039646613527</v>
+        <v>1.000135001262843</v>
       </c>
       <c r="L11">
-        <v>1.000039646613527</v>
+        <v>1.000135001262843</v>
       </c>
       <c r="M11">
-        <v>0.9999405330344073</v>
+        <v>0.9997975078177035</v>
       </c>
       <c r="N11">
-        <v>0.9999405330344073</v>
+        <v>0.9997975078177035</v>
       </c>
       <c r="O11">
-        <v>0.9999312813729726</v>
+        <v>0.9997660085255875</v>
       </c>
       <c r="P11">
-        <v>0.999973570894114</v>
+        <v>0.9999100056327501</v>
       </c>
       <c r="Q11">
-        <v>0.999973570894114</v>
+        <v>0.9999100056327501</v>
       </c>
       <c r="R11">
-        <v>0.9999900898239673</v>
+        <v>0.9999662545402734</v>
       </c>
       <c r="S11">
-        <v>0.9999900898239673</v>
+        <v>0.9999662545402734</v>
       </c>
       <c r="T11">
-        <v>0.9999964770169681</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9999880035845751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9996486128627142</v>
+        <v>1.00124195691579</v>
       </c>
       <c r="D12">
-        <v>1.001405547539571</v>
+        <v>0.9989753862105328</v>
       </c>
       <c r="E12">
-        <v>0.9996486128627142</v>
+        <v>1.000465730231582</v>
       </c>
       <c r="F12">
-        <v>0.9996486128627142</v>
+        <v>1.000465730231582</v>
       </c>
       <c r="G12">
-        <v>0.9990629629886892</v>
+        <v>0.9981370658736769</v>
       </c>
       <c r="H12">
-        <v>1.000773057607487</v>
+        <v>1.000465730231582</v>
       </c>
       <c r="I12">
-        <v>0.9996486128627142</v>
+        <v>1.000465730231582</v>
       </c>
       <c r="J12">
-        <v>1.001405547539571</v>
+        <v>0.9981370658736769</v>
       </c>
       <c r="K12">
-        <v>0.9996486128627142</v>
+        <v>1.000465730231582</v>
       </c>
       <c r="L12">
-        <v>0.9996486128627142</v>
+        <v>1.000465730231582</v>
       </c>
       <c r="M12">
-        <v>1.000527080201143</v>
+        <v>0.9993013980526293</v>
       </c>
       <c r="N12">
-        <v>1.000527080201143</v>
+        <v>0.9993013980526293</v>
       </c>
       <c r="O12">
-        <v>1.000609072669924</v>
+        <v>0.9991927274385972</v>
       </c>
       <c r="P12">
-        <v>1.000234257755</v>
+        <v>0.9996895087789467</v>
       </c>
       <c r="Q12">
-        <v>1.000234257755</v>
+        <v>0.9996895087789467</v>
       </c>
       <c r="R12">
-        <v>1.000087846531929</v>
+        <v>0.9998835641421056</v>
       </c>
       <c r="S12">
-        <v>1.000087846531929</v>
+        <v>0.9998835641421056</v>
       </c>
       <c r="T12">
-        <v>1.000031234453982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9999585999491242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.999909277551643</v>
+        <v>0.9991860349835381</v>
       </c>
       <c r="D13">
-        <v>1.00036290019896</v>
+        <v>1.000671521371923</v>
       </c>
       <c r="E13">
-        <v>0.999909277551643</v>
+        <v>0.9996947618108046</v>
       </c>
       <c r="F13">
-        <v>0.999909277551643</v>
+        <v>0.9996947618108046</v>
       </c>
       <c r="G13">
-        <v>0.9997580710951544</v>
+        <v>1.001220950239365</v>
       </c>
       <c r="H13">
-        <v>1.000199597022938</v>
+        <v>0.9996947618108046</v>
       </c>
       <c r="I13">
-        <v>0.999909277551643</v>
+        <v>0.9996947618108046</v>
       </c>
       <c r="J13">
-        <v>1.00036290019896</v>
+        <v>1.001220950239365</v>
       </c>
       <c r="K13">
-        <v>0.999909277551643</v>
+        <v>0.9996947618108046</v>
       </c>
       <c r="L13">
-        <v>0.999909277551643</v>
+        <v>0.9996947618108046</v>
       </c>
       <c r="M13">
-        <v>1.000136088875301</v>
+        <v>1.000457856025085</v>
       </c>
       <c r="N13">
-        <v>1.000136088875301</v>
+        <v>1.000457856025085</v>
       </c>
       <c r="O13">
-        <v>1.000157258257847</v>
+        <v>1.000529077807364</v>
       </c>
       <c r="P13">
-        <v>1.000060485100749</v>
+        <v>1.000203491286991</v>
       </c>
       <c r="Q13">
-        <v>1.000060485100749</v>
+        <v>1.000203491286991</v>
       </c>
       <c r="R13">
-        <v>1.000022683213472</v>
+        <v>1.000076308917945</v>
       </c>
       <c r="S13">
-        <v>1.000022683213472</v>
+        <v>1.000076308917945</v>
       </c>
       <c r="T13">
-        <v>1.000008066828664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.00002713200454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9996486435848649</v>
+        <v>1.0071504</v>
       </c>
       <c r="D14">
-        <v>1.001405444837208</v>
+        <v>0.9941009200000001</v>
       </c>
       <c r="E14">
-        <v>0.9996486435848649</v>
+        <v>1.0026814</v>
       </c>
       <c r="F14">
-        <v>0.9996486435848649</v>
+        <v>1.0026814</v>
       </c>
       <c r="G14">
-        <v>0.9990630426419195</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="H14">
-        <v>1.000772998997628</v>
+        <v>1.0026814</v>
       </c>
       <c r="I14">
-        <v>0.9996486435848649</v>
+        <v>1.0026814</v>
       </c>
       <c r="J14">
-        <v>1.001405444837208</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="K14">
-        <v>0.9996486435848649</v>
+        <v>1.0026814</v>
       </c>
       <c r="L14">
-        <v>0.9996486435848649</v>
+        <v>1.0026814</v>
       </c>
       <c r="M14">
-        <v>1.000527044211037</v>
+        <v>0.9959779049999997</v>
       </c>
       <c r="N14">
-        <v>1.000527044211037</v>
+        <v>0.9959779049999997</v>
       </c>
       <c r="O14">
-        <v>1.0006090291399</v>
+        <v>0.9953522433333332</v>
       </c>
       <c r="P14">
-        <v>1.000234244002313</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="Q14">
-        <v>1.000234244002313</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="R14">
-        <v>1.000087843897951</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="S14">
-        <v>1.000087843897951</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="T14">
-        <v>1.000031236205225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.999761655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9999092747051428</v>
+        <v>1.0026814</v>
       </c>
       <c r="D15">
-        <v>1.000362879047983</v>
+        <v>0.99778785</v>
       </c>
       <c r="E15">
-        <v>0.9999092747051428</v>
+        <v>1.0010055</v>
       </c>
       <c r="F15">
-        <v>0.9999092747051428</v>
+        <v>1.0010055</v>
       </c>
       <c r="G15">
-        <v>0.9997580896586302</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H15">
-        <v>1.00019957926588</v>
+        <v>1.0010055</v>
       </c>
       <c r="I15">
-        <v>0.9999092747051428</v>
+        <v>1.0010055</v>
       </c>
       <c r="J15">
-        <v>1.000362879047983</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="K15">
-        <v>0.9999092747051428</v>
+        <v>1.0010055</v>
       </c>
       <c r="L15">
-        <v>0.9999092747051428</v>
+        <v>1.0010055</v>
       </c>
       <c r="M15">
-        <v>1.000136076876563</v>
+        <v>0.9984917</v>
       </c>
       <c r="N15">
-        <v>1.000136076876563</v>
+        <v>0.9984917</v>
       </c>
       <c r="O15">
-        <v>1.000157244339668</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P15">
-        <v>1.000060476152756</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q15">
-        <v>1.000060476152756</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R15">
-        <v>1.000022675790853</v>
+        <v>0.9997486</v>
       </c>
       <c r="S15">
-        <v>1.000022675790853</v>
+        <v>0.9997486</v>
       </c>
       <c r="T15">
-        <v>1.000008062014653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9999106083333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000179589718</v>
+        <v>1.0026812</v>
       </c>
       <c r="D16">
-        <v>0.9999992824364109</v>
+        <v>0.99778799</v>
       </c>
       <c r="E16">
-        <v>1.000000179589718</v>
+        <v>1.0010055</v>
       </c>
       <c r="F16">
-        <v>1.000000179589718</v>
+        <v>1.0010055</v>
       </c>
       <c r="G16">
-        <v>1.000000480649996</v>
+        <v>0.9959781599999999</v>
       </c>
       <c r="H16">
-        <v>0.9999996063219282</v>
+        <v>1.0010055</v>
       </c>
       <c r="I16">
-        <v>1.000000179589718</v>
+        <v>1.0010055</v>
       </c>
       <c r="J16">
-        <v>0.9999992824364109</v>
+        <v>0.9959781599999999</v>
       </c>
       <c r="K16">
-        <v>1.000000179589718</v>
+        <v>1.0010055</v>
       </c>
       <c r="L16">
-        <v>1.000000179589718</v>
+        <v>1.0010055</v>
       </c>
       <c r="M16">
-        <v>0.9999997310130646</v>
+        <v>0.99849183</v>
       </c>
       <c r="N16">
-        <v>0.9999997310130646</v>
+        <v>0.99849183</v>
       </c>
       <c r="O16">
-        <v>0.9999996894493525</v>
+        <v>0.9982572166666666</v>
       </c>
       <c r="P16">
-        <v>0.9999998805386158</v>
+        <v>0.99932972</v>
       </c>
       <c r="Q16">
-        <v>0.9999998805386158</v>
+        <v>0.99932972</v>
       </c>
       <c r="R16">
-        <v>0.9999999553013914</v>
+        <v>0.999748665</v>
       </c>
       <c r="S16">
-        <v>0.9999999553013914</v>
+        <v>0.999748665</v>
       </c>
       <c r="T16">
-        <v>0.9999999846962483</v>
+        <v>0.9999106416666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003809354274</v>
+        <v>0.99793309</v>
       </c>
       <c r="D17">
-        <v>0.9999847616716492</v>
+        <v>1.0017052</v>
       </c>
       <c r="E17">
-        <v>1.000003809354274</v>
+        <v>0.9992249100000001</v>
       </c>
       <c r="F17">
-        <v>1.000003809354274</v>
+        <v>0.9992249100000001</v>
       </c>
       <c r="G17">
-        <v>1.00001016109057</v>
+        <v>1.0031004</v>
       </c>
       <c r="H17">
-        <v>0.9999916199185668</v>
+        <v>0.9992249100000001</v>
       </c>
       <c r="I17">
-        <v>1.000003809354274</v>
+        <v>0.9992249100000001</v>
       </c>
       <c r="J17">
-        <v>0.9999847616716492</v>
+        <v>1.0031004</v>
       </c>
       <c r="K17">
-        <v>1.000003809354274</v>
+        <v>0.9992249100000001</v>
       </c>
       <c r="L17">
-        <v>1.000003809354274</v>
+        <v>0.9992249100000001</v>
       </c>
       <c r="M17">
-        <v>0.9999942855129615</v>
+        <v>1.001162655</v>
       </c>
       <c r="N17">
-        <v>0.9999942855129615</v>
+        <v>1.001162655</v>
       </c>
       <c r="O17">
-        <v>0.9999933969814966</v>
+        <v>1.001343503333333</v>
       </c>
       <c r="P17">
-        <v>0.9999974601267323</v>
+        <v>1.00051674</v>
       </c>
       <c r="Q17">
-        <v>0.9999974601267323</v>
+        <v>1.00051674</v>
       </c>
       <c r="R17">
-        <v>0.9999990474336177</v>
+        <v>1.0001937825</v>
       </c>
       <c r="S17">
-        <v>0.9999990474336177</v>
+        <v>1.0001937825</v>
       </c>
       <c r="T17">
-        <v>0.9999996617906012</v>
+        <v>1.000068903333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013415047468</v>
+        <v>1.0026814</v>
       </c>
       <c r="D18">
-        <v>0.9999463461236601</v>
+        <v>0.9977878467123287</v>
       </c>
       <c r="E18">
-        <v>1.000013415047468</v>
+        <v>1.001005527397261</v>
       </c>
       <c r="F18">
-        <v>1.000013415047468</v>
+        <v>1.001005527397261</v>
       </c>
       <c r="G18">
-        <v>1.000035771917387</v>
+        <v>0.9959779021917807</v>
       </c>
       <c r="H18">
-        <v>0.9999704904213603</v>
+        <v>1.001005527397261</v>
       </c>
       <c r="I18">
-        <v>1.000013415047468</v>
+        <v>1.001005527397261</v>
       </c>
       <c r="J18">
-        <v>0.9999463461236601</v>
+        <v>0.9959779021917807</v>
       </c>
       <c r="K18">
-        <v>1.000013415047468</v>
+        <v>1.001005527397261</v>
       </c>
       <c r="L18">
-        <v>1.000013415047468</v>
+        <v>1.001005527397261</v>
       </c>
       <c r="M18">
-        <v>0.999979880585564</v>
+        <v>0.9984917147945207</v>
       </c>
       <c r="N18">
-        <v>0.999979880585564</v>
+        <v>0.9984917147945207</v>
       </c>
       <c r="O18">
-        <v>0.9999767505308294</v>
+        <v>0.9982570921004568</v>
       </c>
       <c r="P18">
-        <v>0.999991058739532</v>
+        <v>0.9993296523287674</v>
       </c>
       <c r="Q18">
-        <v>0.999991058739532</v>
+        <v>0.9993296523287674</v>
       </c>
       <c r="R18">
-        <v>0.999996647816516</v>
+        <v>0.9997486210958907</v>
       </c>
       <c r="S18">
-        <v>0.999996647816516</v>
+        <v>0.9997486210958907</v>
       </c>
       <c r="T18">
-        <v>0.9999988089341351</v>
+        <v>0.9999106218493153</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000031427609705</v>
+        <v>1.001211336315789</v>
       </c>
       <c r="D19">
-        <v>0.9998743045294539</v>
+        <v>0.9990006547368421</v>
       </c>
       <c r="E19">
-        <v>1.000031427609705</v>
+        <v>1.00045425</v>
       </c>
       <c r="F19">
-        <v>1.000031427609705</v>
+        <v>1.00045425</v>
       </c>
       <c r="G19">
-        <v>1.00008380236669</v>
+        <v>0.9981830136842104</v>
       </c>
       <c r="H19">
-        <v>0.9999308683565417</v>
+        <v>1.00045425</v>
       </c>
       <c r="I19">
-        <v>1.000031427609705</v>
+        <v>1.00045425</v>
       </c>
       <c r="J19">
-        <v>0.9998743045294539</v>
+        <v>0.9981830136842104</v>
       </c>
       <c r="K19">
-        <v>1.000031427609705</v>
+        <v>1.00045425</v>
       </c>
       <c r="L19">
-        <v>1.000031427609705</v>
+        <v>1.00045425</v>
       </c>
       <c r="M19">
-        <v>0.9999528660695796</v>
+        <v>0.9993186318421052</v>
       </c>
       <c r="N19">
-        <v>0.9999528660695796</v>
+        <v>0.9993186318421052</v>
       </c>
       <c r="O19">
-        <v>0.999945533498567</v>
+        <v>0.9992126394736842</v>
       </c>
       <c r="P19">
-        <v>0.9999790532496213</v>
+        <v>0.9996971712280702</v>
       </c>
       <c r="Q19">
-        <v>0.9999790532496213</v>
+        <v>0.9996971712280702</v>
       </c>
       <c r="R19">
-        <v>0.9999921468396422</v>
+        <v>0.9998864409210527</v>
       </c>
       <c r="S19">
-        <v>0.9999921468396422</v>
+        <v>0.9998864409210527</v>
       </c>
       <c r="T19">
-        <v>0.9999972096803001</v>
+        <v>0.9999596257894737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.001211267894737</v>
+      </c>
+      <c r="D20">
+        <v>0.9990007015789473</v>
+      </c>
+      <c r="E20">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="F20">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="G20">
+        <v>0.9981830857894738</v>
+      </c>
+      <c r="H20">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="I20">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="J20">
+        <v>0.9981830857894738</v>
+      </c>
+      <c r="K20">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="L20">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="M20">
+        <v>0.9993186544736842</v>
+      </c>
+      <c r="N20">
+        <v>0.9993186544736842</v>
+      </c>
+      <c r="O20">
+        <v>0.9992126701754386</v>
+      </c>
+      <c r="P20">
+        <v>0.999697177368421</v>
+      </c>
+      <c r="Q20">
+        <v>0.999697177368421</v>
+      </c>
+      <c r="R20">
+        <v>0.9998864388157893</v>
+      </c>
+      <c r="S20">
+        <v>0.9998864388157893</v>
+      </c>
+      <c r="T20">
+        <v>0.9999596207894735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9990630426419195</v>
+      </c>
+      <c r="D21">
+        <v>1.000772998997628</v>
+      </c>
+      <c r="E21">
+        <v>0.9996486435848649</v>
+      </c>
+      <c r="F21">
+        <v>0.9996486435848649</v>
+      </c>
+      <c r="G21">
+        <v>1.001405444837208</v>
+      </c>
+      <c r="H21">
+        <v>0.9996486435848649</v>
+      </c>
+      <c r="I21">
+        <v>0.9996486435848649</v>
+      </c>
+      <c r="J21">
+        <v>1.001405444837208</v>
+      </c>
+      <c r="K21">
+        <v>0.9996486435848649</v>
+      </c>
+      <c r="L21">
+        <v>0.9996486435848649</v>
+      </c>
+      <c r="M21">
+        <v>1.000527044211037</v>
+      </c>
+      <c r="N21">
+        <v>1.000527044211037</v>
+      </c>
+      <c r="O21">
+        <v>1.0006090291399</v>
+      </c>
+      <c r="P21">
+        <v>1.000234244002313</v>
+      </c>
+      <c r="Q21">
+        <v>1.000234244002313</v>
+      </c>
+      <c r="R21">
+        <v>1.000087843897951</v>
+      </c>
+      <c r="S21">
+        <v>1.000087843897951</v>
+      </c>
+      <c r="T21">
+        <v>1.000031236205225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9997580896586302</v>
+      </c>
+      <c r="D22">
+        <v>1.00019957926588</v>
+      </c>
+      <c r="E22">
+        <v>0.9999092747051428</v>
+      </c>
+      <c r="F22">
+        <v>0.9999092747051428</v>
+      </c>
+      <c r="G22">
+        <v>1.000362879047983</v>
+      </c>
+      <c r="H22">
+        <v>0.9999092747051428</v>
+      </c>
+      <c r="I22">
+        <v>0.9999092747051428</v>
+      </c>
+      <c r="J22">
+        <v>1.000362879047983</v>
+      </c>
+      <c r="K22">
+        <v>0.9999092747051428</v>
+      </c>
+      <c r="L22">
+        <v>0.9999092747051428</v>
+      </c>
+      <c r="M22">
+        <v>1.000136076876563</v>
+      </c>
+      <c r="N22">
+        <v>1.000136076876563</v>
+      </c>
+      <c r="O22">
+        <v>1.000157244339668</v>
+      </c>
+      <c r="P22">
+        <v>1.000060476152756</v>
+      </c>
+      <c r="Q22">
+        <v>1.000060476152756</v>
+      </c>
+      <c r="R22">
+        <v>1.000022675790853</v>
+      </c>
+      <c r="S22">
+        <v>1.000022675790853</v>
+      </c>
+      <c r="T22">
+        <v>1.000008062014653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9990629629886892</v>
+      </c>
+      <c r="D23">
+        <v>1.000773057607487</v>
+      </c>
+      <c r="E23">
+        <v>0.9996486128627142</v>
+      </c>
+      <c r="F23">
+        <v>0.9996486128627142</v>
+      </c>
+      <c r="G23">
+        <v>1.001405547539571</v>
+      </c>
+      <c r="H23">
+        <v>0.9996486128627142</v>
+      </c>
+      <c r="I23">
+        <v>0.9996486128627142</v>
+      </c>
+      <c r="J23">
+        <v>1.001405547539571</v>
+      </c>
+      <c r="K23">
+        <v>0.9996486128627142</v>
+      </c>
+      <c r="L23">
+        <v>0.9996486128627142</v>
+      </c>
+      <c r="M23">
+        <v>1.000527080201143</v>
+      </c>
+      <c r="N23">
+        <v>1.000527080201143</v>
+      </c>
+      <c r="O23">
+        <v>1.000609072669924</v>
+      </c>
+      <c r="P23">
+        <v>1.000234257755</v>
+      </c>
+      <c r="Q23">
+        <v>1.000234257755</v>
+      </c>
+      <c r="R23">
+        <v>1.000087846531929</v>
+      </c>
+      <c r="S23">
+        <v>1.000087846531929</v>
+      </c>
+      <c r="T23">
+        <v>1.000031234453982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9997580710951542</v>
+      </c>
+      <c r="D24">
+        <v>1.000199597022938</v>
+      </c>
+      <c r="E24">
+        <v>0.999909277551643</v>
+      </c>
+      <c r="F24">
+        <v>0.999909277551643</v>
+      </c>
+      <c r="G24">
+        <v>1.00036290019896</v>
+      </c>
+      <c r="H24">
+        <v>0.999909277551643</v>
+      </c>
+      <c r="I24">
+        <v>0.999909277551643</v>
+      </c>
+      <c r="J24">
+        <v>1.00036290019896</v>
+      </c>
+      <c r="K24">
+        <v>0.999909277551643</v>
+      </c>
+      <c r="L24">
+        <v>0.999909277551643</v>
+      </c>
+      <c r="M24">
+        <v>1.000136088875301</v>
+      </c>
+      <c r="N24">
+        <v>1.000136088875301</v>
+      </c>
+      <c r="O24">
+        <v>1.000157258257847</v>
+      </c>
+      <c r="P24">
+        <v>1.000060485100749</v>
+      </c>
+      <c r="Q24">
+        <v>1.000060485100749</v>
+      </c>
+      <c r="R24">
+        <v>1.000022683213472</v>
+      </c>
+      <c r="S24">
+        <v>1.000022683213472</v>
+      </c>
+      <c r="T24">
+        <v>1.000008066828664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9990628598745798</v>
+      </c>
+      <c r="D25">
+        <v>1.000773134252293</v>
+      </c>
+      <c r="E25">
+        <v>0.9996485677650193</v>
+      </c>
+      <c r="F25">
+        <v>0.9996485677650193</v>
+      </c>
+      <c r="G25">
+        <v>1.001405684107493</v>
+      </c>
+      <c r="H25">
+        <v>0.9996485677650193</v>
+      </c>
+      <c r="I25">
+        <v>0.9996485677650193</v>
+      </c>
+      <c r="J25">
+        <v>1.001405684107493</v>
+      </c>
+      <c r="K25">
+        <v>0.9996485677650193</v>
+      </c>
+      <c r="L25">
+        <v>0.9996485677650193</v>
+      </c>
+      <c r="M25">
+        <v>1.000527125936256</v>
+      </c>
+      <c r="N25">
+        <v>1.000527125936256</v>
+      </c>
+      <c r="O25">
+        <v>1.000609128708268</v>
+      </c>
+      <c r="P25">
+        <v>1.00023427321251</v>
+      </c>
+      <c r="Q25">
+        <v>1.00023427321251</v>
+      </c>
+      <c r="R25">
+        <v>1.000087846850638</v>
+      </c>
+      <c r="S25">
+        <v>1.000087846850638</v>
+      </c>
+      <c r="T25">
+        <v>1.000031230254904</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9997580431662315</v>
+      </c>
+      <c r="D26">
+        <v>1.000199617034237</v>
+      </c>
+      <c r="E26">
+        <v>0.999909267401151</v>
+      </c>
+      <c r="F26">
+        <v>0.999909267401151</v>
+      </c>
+      <c r="G26">
+        <v>1.000362936292582</v>
+      </c>
+      <c r="H26">
+        <v>0.999909267401151</v>
+      </c>
+      <c r="I26">
+        <v>0.999909267401151</v>
+      </c>
+      <c r="J26">
+        <v>1.000362936292582</v>
+      </c>
+      <c r="K26">
+        <v>0.999909267401151</v>
+      </c>
+      <c r="L26">
+        <v>0.999909267401151</v>
+      </c>
+      <c r="M26">
+        <v>1.000136101846866</v>
+      </c>
+      <c r="N26">
+        <v>1.000136101846866</v>
+      </c>
+      <c r="O26">
+        <v>1.00015727357599</v>
+      </c>
+      <c r="P26">
+        <v>1.000060490364961</v>
+      </c>
+      <c r="Q26">
+        <v>1.000060490364961</v>
+      </c>
+      <c r="R26">
+        <v>1.000022684624009</v>
+      </c>
+      <c r="S26">
+        <v>1.000022684624009</v>
+      </c>
+      <c r="T26">
+        <v>1.000008066449417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000426171149966</v>
+      </c>
+      <c r="D27">
+        <v>0.9996484292300374</v>
+      </c>
+      <c r="E27">
+        <v>1.00015980406992</v>
+      </c>
+      <c r="F27">
+        <v>1.00015980406992</v>
+      </c>
+      <c r="G27">
+        <v>0.9993607607417104</v>
+      </c>
+      <c r="H27">
+        <v>1.00015980406992</v>
+      </c>
+      <c r="I27">
+        <v>1.00015980406992</v>
+      </c>
+      <c r="J27">
+        <v>0.9993607607417104</v>
+      </c>
+      <c r="K27">
+        <v>1.00015980406992</v>
+      </c>
+      <c r="L27">
+        <v>1.00015980406992</v>
+      </c>
+      <c r="M27">
+        <v>0.9997602824058154</v>
+      </c>
+      <c r="N27">
+        <v>0.9997602824058154</v>
+      </c>
+      <c r="O27">
+        <v>0.9997229980138894</v>
+      </c>
+      <c r="P27">
+        <v>0.9998934562938504</v>
+      </c>
+      <c r="Q27">
+        <v>0.9998934562938504</v>
+      </c>
+      <c r="R27">
+        <v>0.9999600432378679</v>
+      </c>
+      <c r="S27">
+        <v>0.9999600432378679</v>
+      </c>
+      <c r="T27">
+        <v>0.9999857955552459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9999260693199469</v>
+      </c>
+      <c r="D28">
+        <v>1.000061001785794</v>
+      </c>
+      <c r="E28">
+        <v>0.9999722816739886</v>
+      </c>
+      <c r="F28">
+        <v>0.9999722816739886</v>
+      </c>
+      <c r="G28">
+        <v>1.000110896317773</v>
+      </c>
+      <c r="H28">
+        <v>0.9999722816739886</v>
+      </c>
+      <c r="I28">
+        <v>0.9999722816739886</v>
+      </c>
+      <c r="J28">
+        <v>1.000110896317773</v>
+      </c>
+      <c r="K28">
+        <v>0.9999722816739886</v>
+      </c>
+      <c r="L28">
+        <v>0.9999722816739886</v>
+      </c>
+      <c r="M28">
+        <v>1.00004158899588</v>
+      </c>
+      <c r="N28">
+        <v>1.00004158899588</v>
+      </c>
+      <c r="O28">
+        <v>1.000048059925851</v>
+      </c>
+      <c r="P28">
+        <v>1.00001848655525</v>
+      </c>
+      <c r="Q28">
+        <v>1.00001848655525</v>
+      </c>
+      <c r="R28">
+        <v>1.000006935334935</v>
+      </c>
+      <c r="S28">
+        <v>1.000006935334935</v>
+      </c>
+      <c r="T28">
+        <v>1.000002468740913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9986249917048791</v>
+      </c>
+      <c r="D29">
+        <v>1.001134381045772</v>
+      </c>
+      <c r="E29">
+        <v>0.9994843787050506</v>
+      </c>
+      <c r="F29">
+        <v>0.9994843787050506</v>
+      </c>
+      <c r="G29">
+        <v>1.002062506812253</v>
+      </c>
+      <c r="H29">
+        <v>0.9994843787050506</v>
+      </c>
+      <c r="I29">
+        <v>0.9994843787050506</v>
+      </c>
+      <c r="J29">
+        <v>1.002062506812253</v>
+      </c>
+      <c r="K29">
+        <v>0.9994843787050506</v>
+      </c>
+      <c r="L29">
+        <v>0.9994843787050506</v>
+      </c>
+      <c r="M29">
+        <v>1.000773442758652</v>
+      </c>
+      <c r="N29">
+        <v>1.000773442758652</v>
+      </c>
+      <c r="O29">
+        <v>1.000893755521025</v>
+      </c>
+      <c r="P29">
+        <v>1.000343754740785</v>
+      </c>
+      <c r="Q29">
+        <v>1.000343754740785</v>
+      </c>
+      <c r="R29">
+        <v>1.000128910731851</v>
+      </c>
+      <c r="S29">
+        <v>1.000128910731851</v>
+      </c>
+      <c r="T29">
+        <v>1.000045835946343</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000381875700334</v>
+        <v>1.001019592207308</v>
       </c>
       <c r="D4">
-        <v>0.9996849578140595</v>
+        <v>0.9991588381799009</v>
       </c>
       <c r="E4">
-        <v>1.000143204880407</v>
+        <v>1.000382344568727</v>
       </c>
       <c r="F4">
-        <v>1.000143204880407</v>
+        <v>1.000382344568727</v>
       </c>
       <c r="G4">
-        <v>0.9994271950883702</v>
+        <v>0.9984706136647282</v>
       </c>
       <c r="H4">
-        <v>1.000143204880407</v>
+        <v>1.000382344568727</v>
       </c>
       <c r="I4">
-        <v>1.000143204880407</v>
+        <v>1.000382344568727</v>
       </c>
       <c r="J4">
-        <v>0.9994271950883702</v>
+        <v>0.9984706136647282</v>
       </c>
       <c r="K4">
-        <v>1.000143204880407</v>
+        <v>1.000382344568727</v>
       </c>
       <c r="L4">
-        <v>1.000143204880407</v>
+        <v>1.000382344568727</v>
       </c>
       <c r="M4">
-        <v>0.9997851999843888</v>
+        <v>0.9994264791167273</v>
       </c>
       <c r="N4">
-        <v>0.9997851999843888</v>
+        <v>0.9994264791167273</v>
       </c>
       <c r="O4">
-        <v>0.9997517859276123</v>
+        <v>0.9993372654711186</v>
       </c>
       <c r="P4">
-        <v>0.9999045349497283</v>
+        <v>0.9997451009340604</v>
       </c>
       <c r="Q4">
-        <v>0.9999045349497283</v>
+        <v>0.9997451009340604</v>
       </c>
       <c r="R4">
-        <v>0.999964202432398</v>
+        <v>0.9999044118427269</v>
       </c>
       <c r="S4">
-        <v>0.999964202432398</v>
+        <v>0.9999044118427269</v>
       </c>
       <c r="T4">
-        <v>0.9999872738739976</v>
+        <v>0.9999660129596862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.0012156115634</v>
+        <v>1.000702780149616</v>
       </c>
       <c r="D5">
-        <v>0.9989971220389099</v>
+        <v>0.9994202039585336</v>
       </c>
       <c r="E5">
-        <v>1.000455851887608</v>
+        <v>1.000263541266357</v>
       </c>
       <c r="F5">
-        <v>1.000455851887608</v>
+        <v>1.000263541266357</v>
       </c>
       <c r="G5">
-        <v>0.9981765845388988</v>
+        <v>0.9989458162720781</v>
       </c>
       <c r="H5">
-        <v>1.000455851887608</v>
+        <v>1.000263541266357</v>
       </c>
       <c r="I5">
-        <v>1.000455851887608</v>
+        <v>1.000263541266357</v>
       </c>
       <c r="J5">
-        <v>0.9981765845388988</v>
+        <v>0.9989458162720781</v>
       </c>
       <c r="K5">
-        <v>1.000455851887608</v>
+        <v>1.000263541266357</v>
       </c>
       <c r="L5">
-        <v>1.000455851887608</v>
+        <v>1.000263541266357</v>
       </c>
       <c r="M5">
-        <v>0.9993162182132532</v>
+        <v>0.9996046787692174</v>
       </c>
       <c r="N5">
-        <v>0.9993162182132532</v>
+        <v>0.9996046787692174</v>
       </c>
       <c r="O5">
-        <v>0.9992098528218055</v>
+        <v>0.999543187165656</v>
       </c>
       <c r="P5">
-        <v>0.9996960961047048</v>
+        <v>0.9998242996015971</v>
       </c>
       <c r="Q5">
-        <v>0.9996960961047048</v>
+        <v>0.9998242996015971</v>
       </c>
       <c r="R5">
-        <v>0.9998860350504305</v>
+        <v>0.999934110017787</v>
       </c>
       <c r="S5">
-        <v>0.9998860350504305</v>
+        <v>0.999934110017787</v>
       </c>
       <c r="T5">
-        <v>0.9999594789673386</v>
+        <v>0.9999765706965497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00407796235312</v>
+        <v>1.000381875700334</v>
       </c>
       <c r="D6">
-        <v>0.9966356819812342</v>
+        <v>0.9996849578140595</v>
       </c>
       <c r="E6">
-        <v>1.001529234584023</v>
+        <v>1.000143204880407</v>
       </c>
       <c r="F6">
-        <v>1.001529234584023</v>
+        <v>1.000143204880407</v>
       </c>
       <c r="G6">
-        <v>0.9938830622970808</v>
+        <v>0.9994271950883702</v>
       </c>
       <c r="H6">
-        <v>1.001529234584023</v>
+        <v>1.000143204880407</v>
       </c>
       <c r="I6">
-        <v>1.001529234584023</v>
+        <v>1.000143204880407</v>
       </c>
       <c r="J6">
-        <v>0.9938830622970808</v>
+        <v>0.9994271950883702</v>
       </c>
       <c r="K6">
-        <v>1.001529234584023</v>
+        <v>1.000143204880407</v>
       </c>
       <c r="L6">
-        <v>1.001529234584023</v>
+        <v>1.000143204880407</v>
       </c>
       <c r="M6">
-        <v>0.9977061484405521</v>
+        <v>0.9997851999843888</v>
       </c>
       <c r="N6">
-        <v>0.9977061484405521</v>
+        <v>0.9997851999843888</v>
       </c>
       <c r="O6">
-        <v>0.9973493262874461</v>
+        <v>0.9997517859276123</v>
       </c>
       <c r="P6">
-        <v>0.9989805104883759</v>
+        <v>0.9999045349497283</v>
       </c>
       <c r="Q6">
-        <v>0.9989805104883759</v>
+        <v>0.9999045349497283</v>
       </c>
       <c r="R6">
-        <v>0.9996176915122877</v>
+        <v>0.999964202432398</v>
       </c>
       <c r="S6">
-        <v>0.9996176915122877</v>
+        <v>0.999964202432398</v>
       </c>
       <c r="T6">
-        <v>0.9998640683972507</v>
+        <v>0.9999872738739976</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000126850169606</v>
+        <v>1.0012156115634</v>
       </c>
       <c r="D7">
-        <v>0.9998953512570201</v>
+        <v>0.9989971220389099</v>
       </c>
       <c r="E7">
-        <v>1.000047568349607</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="F7">
-        <v>1.000047568349607</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="G7">
-        <v>0.9998097279907741</v>
+        <v>0.9981765845388988</v>
       </c>
       <c r="H7">
-        <v>1.000047568349607</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="I7">
-        <v>1.000047568349607</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="J7">
-        <v>0.9998097279907741</v>
+        <v>0.9981765845388988</v>
       </c>
       <c r="K7">
-        <v>1.000047568349607</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="L7">
-        <v>1.000047568349607</v>
+        <v>1.000455851887608</v>
       </c>
       <c r="M7">
-        <v>0.9999286481701904</v>
+        <v>0.9993162182132532</v>
       </c>
       <c r="N7">
-        <v>0.9999286481701904</v>
+        <v>0.9993162182132532</v>
       </c>
       <c r="O7">
-        <v>0.9999175491991337</v>
+        <v>0.9992098528218055</v>
       </c>
       <c r="P7">
-        <v>0.9999682882299959</v>
+        <v>0.9996960961047048</v>
       </c>
       <c r="Q7">
-        <v>0.9999682882299959</v>
+        <v>0.9996960961047048</v>
       </c>
       <c r="R7">
-        <v>0.9999881082598987</v>
+        <v>0.9998860350504305</v>
       </c>
       <c r="S7">
-        <v>0.9999881082598987</v>
+        <v>0.9998860350504305</v>
       </c>
       <c r="T7">
-        <v>0.9999957724110368</v>
+        <v>0.9999594789673386</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00001016109057</v>
+        <v>1.00407796235312</v>
       </c>
       <c r="D8">
-        <v>0.9999916199185668</v>
+        <v>0.9966356819812342</v>
       </c>
       <c r="E8">
-        <v>1.000003809354274</v>
+        <v>1.001529234584023</v>
       </c>
       <c r="F8">
-        <v>1.000003809354274</v>
+        <v>1.001529234584023</v>
       </c>
       <c r="G8">
-        <v>0.9999847616716492</v>
+        <v>0.9938830622970808</v>
       </c>
       <c r="H8">
-        <v>1.000003809354274</v>
+        <v>1.001529234584023</v>
       </c>
       <c r="I8">
-        <v>1.000003809354274</v>
+        <v>1.001529234584023</v>
       </c>
       <c r="J8">
-        <v>0.9999847616716492</v>
+        <v>0.9938830622970808</v>
       </c>
       <c r="K8">
-        <v>1.000003809354274</v>
+        <v>1.001529234584023</v>
       </c>
       <c r="L8">
-        <v>1.000003809354274</v>
+        <v>1.001529234584023</v>
       </c>
       <c r="M8">
-        <v>0.9999942855129615</v>
+        <v>0.9977061484405521</v>
       </c>
       <c r="N8">
-        <v>0.9999942855129615</v>
+        <v>0.9977061484405521</v>
       </c>
       <c r="O8">
-        <v>0.9999933969814966</v>
+        <v>0.9973493262874461</v>
       </c>
       <c r="P8">
-        <v>0.9999974601267323</v>
+        <v>0.9989805104883759</v>
       </c>
       <c r="Q8">
-        <v>0.9999974601267323</v>
+        <v>0.9989805104883759</v>
       </c>
       <c r="R8">
-        <v>0.9999990474336177</v>
+        <v>0.9996176915122877</v>
       </c>
       <c r="S8">
-        <v>0.9999990474336177</v>
+        <v>0.9996176915122877</v>
       </c>
       <c r="T8">
-        <v>0.9999996617906012</v>
+        <v>0.9998640683972507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000224285572079</v>
+        <v>1.000126850169606</v>
       </c>
       <c r="D9">
-        <v>0.999814966908773</v>
+        <v>0.9998953512570201</v>
       </c>
       <c r="E9">
-        <v>1.000084106315881</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="F9">
-        <v>1.000084106315881</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="G9">
-        <v>0.9996635751386809</v>
+        <v>0.9998097279907741</v>
       </c>
       <c r="H9">
-        <v>1.000084106315881</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="I9">
-        <v>1.000084106315881</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="J9">
-        <v>0.9996635751386809</v>
+        <v>0.9998097279907741</v>
       </c>
       <c r="K9">
-        <v>1.000084106315881</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="L9">
-        <v>1.000084106315881</v>
+        <v>1.000047568349607</v>
       </c>
       <c r="M9">
-        <v>0.9998738407272807</v>
+        <v>0.9999286481701904</v>
       </c>
       <c r="N9">
-        <v>0.9998738407272807</v>
+        <v>0.9999286481701904</v>
       </c>
       <c r="O9">
-        <v>0.9998542161211116</v>
+        <v>0.9999175491991337</v>
       </c>
       <c r="P9">
-        <v>0.9999439292568141</v>
+        <v>0.9999682882299959</v>
       </c>
       <c r="Q9">
-        <v>0.9999439292568141</v>
+        <v>0.9999682882299959</v>
       </c>
       <c r="R9">
-        <v>0.9999789735215807</v>
+        <v>0.9999881082598987</v>
       </c>
       <c r="S9">
-        <v>0.9999789735215807</v>
+        <v>0.9999881082598987</v>
       </c>
       <c r="T9">
-        <v>0.9999925244278626</v>
+        <v>0.9999957724110368</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.004138656533373</v>
+        <v>1.00001016109057</v>
       </c>
       <c r="D10">
-        <v>0.996585608406824</v>
+        <v>0.9999916199185668</v>
       </c>
       <c r="E10">
-        <v>1.001551994253747</v>
+        <v>1.000003809354274</v>
       </c>
       <c r="F10">
-        <v>1.001551994253747</v>
+        <v>1.000003809354274</v>
       </c>
       <c r="G10">
-        <v>0.9937920207342078</v>
+        <v>0.9999847616716492</v>
       </c>
       <c r="H10">
-        <v>1.001551994253747</v>
+        <v>1.000003809354274</v>
       </c>
       <c r="I10">
-        <v>1.001551994253747</v>
+        <v>1.000003809354274</v>
       </c>
       <c r="J10">
-        <v>0.9937920207342078</v>
+        <v>0.9999847616716492</v>
       </c>
       <c r="K10">
-        <v>1.001551994253747</v>
+        <v>1.000003809354274</v>
       </c>
       <c r="L10">
-        <v>1.001551994253747</v>
+        <v>1.000003809354274</v>
       </c>
       <c r="M10">
-        <v>0.9976720074939773</v>
+        <v>0.9999942855129615</v>
       </c>
       <c r="N10">
-        <v>0.9976720074939773</v>
+        <v>0.9999942855129615</v>
       </c>
       <c r="O10">
-        <v>0.9973098744649262</v>
+        <v>0.9999933969814966</v>
       </c>
       <c r="P10">
-        <v>0.9989653364139004</v>
+        <v>0.9999974601267323</v>
       </c>
       <c r="Q10">
-        <v>0.9989653364139004</v>
+        <v>0.9999974601267323</v>
       </c>
       <c r="R10">
-        <v>0.999612000873862</v>
+        <v>0.9999990474336177</v>
       </c>
       <c r="S10">
-        <v>0.999612000873862</v>
+        <v>0.9999990474336177</v>
       </c>
       <c r="T10">
-        <v>0.9998620447392742</v>
+        <v>0.9999996617906012</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000359993405002</v>
+        <v>1.000224285572079</v>
       </c>
       <c r="D11">
-        <v>0.9997030099413553</v>
+        <v>0.999814966908773</v>
       </c>
       <c r="E11">
-        <v>1.000135001262843</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="F11">
-        <v>1.000135001262843</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="G11">
-        <v>0.9994600143725636</v>
+        <v>0.9996635751386809</v>
       </c>
       <c r="H11">
-        <v>1.000135001262843</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="I11">
-        <v>1.000135001262843</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="J11">
-        <v>0.9994600143725636</v>
+        <v>0.9996635751386809</v>
       </c>
       <c r="K11">
-        <v>1.000135001262843</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="L11">
-        <v>1.000135001262843</v>
+        <v>1.000084106315881</v>
       </c>
       <c r="M11">
-        <v>0.9997975078177035</v>
+        <v>0.9998738407272807</v>
       </c>
       <c r="N11">
-        <v>0.9997975078177035</v>
+        <v>0.9998738407272807</v>
       </c>
       <c r="O11">
-        <v>0.9997660085255875</v>
+        <v>0.9998542161211116</v>
       </c>
       <c r="P11">
-        <v>0.9999100056327501</v>
+        <v>0.9999439292568141</v>
       </c>
       <c r="Q11">
-        <v>0.9999100056327501</v>
+        <v>0.9999439292568141</v>
       </c>
       <c r="R11">
-        <v>0.9999662545402734</v>
+        <v>0.9999789735215807</v>
       </c>
       <c r="S11">
-        <v>0.9999662545402734</v>
+        <v>0.9999789735215807</v>
       </c>
       <c r="T11">
-        <v>0.9999880035845751</v>
+        <v>0.9999925244278626</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.00124195691579</v>
+        <v>1.004138656533373</v>
       </c>
       <c r="D12">
-        <v>0.9989753862105328</v>
+        <v>0.996585608406824</v>
       </c>
       <c r="E12">
-        <v>1.000465730231582</v>
+        <v>1.001551994253747</v>
       </c>
       <c r="F12">
-        <v>1.000465730231582</v>
+        <v>1.001551994253747</v>
       </c>
       <c r="G12">
-        <v>0.9981370658736769</v>
+        <v>0.9937920207342078</v>
       </c>
       <c r="H12">
-        <v>1.000465730231582</v>
+        <v>1.001551994253747</v>
       </c>
       <c r="I12">
-        <v>1.000465730231582</v>
+        <v>1.001551994253747</v>
       </c>
       <c r="J12">
-        <v>0.9981370658736769</v>
+        <v>0.9937920207342078</v>
       </c>
       <c r="K12">
-        <v>1.000465730231582</v>
+        <v>1.001551994253747</v>
       </c>
       <c r="L12">
-        <v>1.000465730231582</v>
+        <v>1.001551994253747</v>
       </c>
       <c r="M12">
-        <v>0.9993013980526293</v>
+        <v>0.9976720074939773</v>
       </c>
       <c r="N12">
-        <v>0.9993013980526293</v>
+        <v>0.9976720074939773</v>
       </c>
       <c r="O12">
-        <v>0.9991927274385972</v>
+        <v>0.9973098744649262</v>
       </c>
       <c r="P12">
-        <v>0.9996895087789467</v>
+        <v>0.9989653364139004</v>
       </c>
       <c r="Q12">
-        <v>0.9996895087789467</v>
+        <v>0.9989653364139004</v>
       </c>
       <c r="R12">
-        <v>0.9998835641421056</v>
+        <v>0.999612000873862</v>
       </c>
       <c r="S12">
-        <v>0.9998835641421056</v>
+        <v>0.999612000873862</v>
       </c>
       <c r="T12">
-        <v>0.9999585999491242</v>
+        <v>0.9998620447392742</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9991860349835381</v>
+        <v>1.000359993405002</v>
       </c>
       <c r="D13">
-        <v>1.000671521371923</v>
+        <v>0.9997030099413553</v>
       </c>
       <c r="E13">
-        <v>0.9996947618108046</v>
+        <v>1.000135001262843</v>
       </c>
       <c r="F13">
-        <v>0.9996947618108046</v>
+        <v>1.000135001262843</v>
       </c>
       <c r="G13">
-        <v>1.001220950239365</v>
+        <v>0.9994600143725636</v>
       </c>
       <c r="H13">
-        <v>0.9996947618108046</v>
+        <v>1.000135001262843</v>
       </c>
       <c r="I13">
-        <v>0.9996947618108046</v>
+        <v>1.000135001262843</v>
       </c>
       <c r="J13">
-        <v>1.001220950239365</v>
+        <v>0.9994600143725636</v>
       </c>
       <c r="K13">
-        <v>0.9996947618108046</v>
+        <v>1.000135001262843</v>
       </c>
       <c r="L13">
-        <v>0.9996947618108046</v>
+        <v>1.000135001262843</v>
       </c>
       <c r="M13">
-        <v>1.000457856025085</v>
+        <v>0.9997975078177035</v>
       </c>
       <c r="N13">
-        <v>1.000457856025085</v>
+        <v>0.9997975078177035</v>
       </c>
       <c r="O13">
-        <v>1.000529077807364</v>
+        <v>0.9997660085255875</v>
       </c>
       <c r="P13">
-        <v>1.000203491286991</v>
+        <v>0.9999100056327501</v>
       </c>
       <c r="Q13">
-        <v>1.000203491286991</v>
+        <v>0.9999100056327501</v>
       </c>
       <c r="R13">
-        <v>1.000076308917945</v>
+        <v>0.9999662545402734</v>
       </c>
       <c r="S13">
-        <v>1.000076308917945</v>
+        <v>0.9999662545402734</v>
       </c>
       <c r="T13">
-        <v>1.00002713200454</v>
+        <v>0.9999880035845751</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0071504</v>
+        <v>1.00124195691579</v>
       </c>
       <c r="D14">
-        <v>0.9941009200000001</v>
+        <v>0.9989753862105328</v>
       </c>
       <c r="E14">
-        <v>1.0026814</v>
+        <v>1.000465730231582</v>
       </c>
       <c r="F14">
-        <v>1.0026814</v>
+        <v>1.000465730231582</v>
       </c>
       <c r="G14">
-        <v>0.9892744099999995</v>
+        <v>0.9981370658736769</v>
       </c>
       <c r="H14">
-        <v>1.0026814</v>
+        <v>1.000465730231582</v>
       </c>
       <c r="I14">
-        <v>1.0026814</v>
+        <v>1.000465730231582</v>
       </c>
       <c r="J14">
-        <v>0.9892744099999995</v>
+        <v>0.9981370658736769</v>
       </c>
       <c r="K14">
-        <v>1.0026814</v>
+        <v>1.000465730231582</v>
       </c>
       <c r="L14">
-        <v>1.0026814</v>
+        <v>1.000465730231582</v>
       </c>
       <c r="M14">
-        <v>0.9959779049999997</v>
+        <v>0.9993013980526293</v>
       </c>
       <c r="N14">
-        <v>0.9959779049999997</v>
+        <v>0.9993013980526293</v>
       </c>
       <c r="O14">
-        <v>0.9953522433333332</v>
+        <v>0.9991927274385972</v>
       </c>
       <c r="P14">
-        <v>0.9982124033333332</v>
+        <v>0.9996895087789467</v>
       </c>
       <c r="Q14">
-        <v>0.9982124033333332</v>
+        <v>0.9996895087789467</v>
       </c>
       <c r="R14">
-        <v>0.9993296524999999</v>
+        <v>0.9998835641421056</v>
       </c>
       <c r="S14">
-        <v>0.9993296524999999</v>
+        <v>0.9998835641421056</v>
       </c>
       <c r="T14">
-        <v>0.999761655</v>
+        <v>0.9999585999491242</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0026814</v>
+        <v>0.9991860349835381</v>
       </c>
       <c r="D15">
-        <v>0.99778785</v>
+        <v>1.000671521371923</v>
       </c>
       <c r="E15">
-        <v>1.0010055</v>
+        <v>0.9996947618108046</v>
       </c>
       <c r="F15">
-        <v>1.0010055</v>
+        <v>0.9996947618108046</v>
       </c>
       <c r="G15">
-        <v>0.9959779000000001</v>
+        <v>1.001220950239365</v>
       </c>
       <c r="H15">
-        <v>1.0010055</v>
+        <v>0.9996947618108046</v>
       </c>
       <c r="I15">
-        <v>1.0010055</v>
+        <v>0.9996947618108046</v>
       </c>
       <c r="J15">
-        <v>0.9959779000000001</v>
+        <v>1.001220950239365</v>
       </c>
       <c r="K15">
-        <v>1.0010055</v>
+        <v>0.9996947618108046</v>
       </c>
       <c r="L15">
-        <v>1.0010055</v>
+        <v>0.9996947618108046</v>
       </c>
       <c r="M15">
-        <v>0.9984917</v>
+        <v>1.000457856025085</v>
       </c>
       <c r="N15">
-        <v>0.9984917</v>
+        <v>1.000457856025085</v>
       </c>
       <c r="O15">
-        <v>0.9982570833333333</v>
+        <v>1.000529077807364</v>
       </c>
       <c r="P15">
-        <v>0.9993296333333334</v>
+        <v>1.000203491286991</v>
       </c>
       <c r="Q15">
-        <v>0.9993296333333334</v>
+        <v>1.000203491286991</v>
       </c>
       <c r="R15">
-        <v>0.9997486</v>
+        <v>1.000076308917945</v>
       </c>
       <c r="S15">
-        <v>0.9997486</v>
+        <v>1.000076308917945</v>
       </c>
       <c r="T15">
-        <v>0.9999106083333333</v>
+        <v>1.00002713200454</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0026812</v>
+        <v>1.0071504</v>
       </c>
       <c r="D16">
-        <v>0.99778799</v>
+        <v>0.9941009200000001</v>
       </c>
       <c r="E16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="F16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="G16">
-        <v>0.9959781599999999</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="H16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="I16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="J16">
-        <v>0.9959781599999999</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="K16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="L16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="M16">
-        <v>0.99849183</v>
+        <v>0.9959779049999997</v>
       </c>
       <c r="N16">
-        <v>0.99849183</v>
+        <v>0.9959779049999997</v>
       </c>
       <c r="O16">
-        <v>0.9982572166666666</v>
+        <v>0.9953522433333332</v>
       </c>
       <c r="P16">
-        <v>0.99932972</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="Q16">
-        <v>0.99932972</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="R16">
-        <v>0.999748665</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="S16">
-        <v>0.999748665</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="T16">
-        <v>0.9999106416666667</v>
+        <v>0.999761655</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99793309</v>
+        <v>1.0026814</v>
       </c>
       <c r="D17">
-        <v>1.0017052</v>
+        <v>0.99778785</v>
       </c>
       <c r="E17">
-        <v>0.9992249100000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="F17">
-        <v>0.9992249100000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="G17">
-        <v>1.0031004</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H17">
-        <v>0.9992249100000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="I17">
-        <v>0.9992249100000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="J17">
-        <v>1.0031004</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="K17">
-        <v>0.9992249100000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="L17">
-        <v>0.9992249100000001</v>
+        <v>1.0010055</v>
       </c>
       <c r="M17">
-        <v>1.001162655</v>
+        <v>0.9984917</v>
       </c>
       <c r="N17">
-        <v>1.001162655</v>
+        <v>0.9984917</v>
       </c>
       <c r="O17">
-        <v>1.001343503333333</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P17">
-        <v>1.00051674</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q17">
-        <v>1.00051674</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R17">
-        <v>1.0001937825</v>
+        <v>0.9997486</v>
       </c>
       <c r="S17">
-        <v>1.0001937825</v>
+        <v>0.9997486</v>
       </c>
       <c r="T17">
-        <v>1.000068903333333</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.0026814</v>
+        <v>1.0026812</v>
       </c>
       <c r="D18">
-        <v>0.9977878467123287</v>
+        <v>0.99778799</v>
       </c>
       <c r="E18">
-        <v>1.001005527397261</v>
+        <v>1.0010055</v>
       </c>
       <c r="F18">
-        <v>1.001005527397261</v>
+        <v>1.0010055</v>
       </c>
       <c r="G18">
-        <v>0.9959779021917807</v>
+        <v>0.9959781599999999</v>
       </c>
       <c r="H18">
-        <v>1.001005527397261</v>
+        <v>1.0010055</v>
       </c>
       <c r="I18">
-        <v>1.001005527397261</v>
+        <v>1.0010055</v>
       </c>
       <c r="J18">
-        <v>0.9959779021917807</v>
+        <v>0.9959781599999999</v>
       </c>
       <c r="K18">
-        <v>1.001005527397261</v>
+        <v>1.0010055</v>
       </c>
       <c r="L18">
-        <v>1.001005527397261</v>
+        <v>1.0010055</v>
       </c>
       <c r="M18">
-        <v>0.9984917147945207</v>
+        <v>0.99849183</v>
       </c>
       <c r="N18">
-        <v>0.9984917147945207</v>
+        <v>0.99849183</v>
       </c>
       <c r="O18">
-        <v>0.9982570921004568</v>
+        <v>0.9982572166666666</v>
       </c>
       <c r="P18">
-        <v>0.9993296523287674</v>
+        <v>0.99932972</v>
       </c>
       <c r="Q18">
-        <v>0.9993296523287674</v>
+        <v>0.99932972</v>
       </c>
       <c r="R18">
-        <v>0.9997486210958907</v>
+        <v>0.999748665</v>
       </c>
       <c r="S18">
-        <v>0.9997486210958907</v>
+        <v>0.999748665</v>
       </c>
       <c r="T18">
-        <v>0.9999106218493153</v>
+        <v>0.9999106416666667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001211336315789</v>
+        <v>0.99793309</v>
       </c>
       <c r="D19">
-        <v>0.9990006547368421</v>
+        <v>1.0017052</v>
       </c>
       <c r="E19">
-        <v>1.00045425</v>
+        <v>0.9992249100000001</v>
       </c>
       <c r="F19">
-        <v>1.00045425</v>
+        <v>0.9992249100000001</v>
       </c>
       <c r="G19">
-        <v>0.9981830136842104</v>
+        <v>1.0031004</v>
       </c>
       <c r="H19">
-        <v>1.00045425</v>
+        <v>0.9992249100000001</v>
       </c>
       <c r="I19">
-        <v>1.00045425</v>
+        <v>0.9992249100000001</v>
       </c>
       <c r="J19">
-        <v>0.9981830136842104</v>
+        <v>1.0031004</v>
       </c>
       <c r="K19">
-        <v>1.00045425</v>
+        <v>0.9992249100000001</v>
       </c>
       <c r="L19">
-        <v>1.00045425</v>
+        <v>0.9992249100000001</v>
       </c>
       <c r="M19">
-        <v>0.9993186318421052</v>
+        <v>1.001162655</v>
       </c>
       <c r="N19">
-        <v>0.9993186318421052</v>
+        <v>1.001162655</v>
       </c>
       <c r="O19">
-        <v>0.9992126394736842</v>
+        <v>1.001343503333333</v>
       </c>
       <c r="P19">
-        <v>0.9996971712280702</v>
+        <v>1.00051674</v>
       </c>
       <c r="Q19">
-        <v>0.9996971712280702</v>
+        <v>1.00051674</v>
       </c>
       <c r="R19">
-        <v>0.9998864409210527</v>
+        <v>1.0001937825</v>
       </c>
       <c r="S19">
-        <v>0.9998864409210527</v>
+        <v>1.0001937825</v>
       </c>
       <c r="T19">
-        <v>0.9999596257894737</v>
+        <v>1.000068903333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.001211267894737</v>
+        <v>1.0026814</v>
       </c>
       <c r="D20">
-        <v>0.9990007015789473</v>
+        <v>0.9977878467123287</v>
       </c>
       <c r="E20">
-        <v>1.000454223157895</v>
+        <v>1.001005527397261</v>
       </c>
       <c r="F20">
-        <v>1.000454223157895</v>
+        <v>1.001005527397261</v>
       </c>
       <c r="G20">
-        <v>0.9981830857894738</v>
+        <v>0.9959779021917807</v>
       </c>
       <c r="H20">
-        <v>1.000454223157895</v>
+        <v>1.001005527397261</v>
       </c>
       <c r="I20">
-        <v>1.000454223157895</v>
+        <v>1.001005527397261</v>
       </c>
       <c r="J20">
-        <v>0.9981830857894738</v>
+        <v>0.9959779021917807</v>
       </c>
       <c r="K20">
-        <v>1.000454223157895</v>
+        <v>1.001005527397261</v>
       </c>
       <c r="L20">
-        <v>1.000454223157895</v>
+        <v>1.001005527397261</v>
       </c>
       <c r="M20">
-        <v>0.9993186544736842</v>
+        <v>0.9984917147945207</v>
       </c>
       <c r="N20">
-        <v>0.9993186544736842</v>
+        <v>0.9984917147945207</v>
       </c>
       <c r="O20">
-        <v>0.9992126701754386</v>
+        <v>0.9982570921004568</v>
       </c>
       <c r="P20">
-        <v>0.999697177368421</v>
+        <v>0.9993296523287674</v>
       </c>
       <c r="Q20">
-        <v>0.999697177368421</v>
+        <v>0.9993296523287674</v>
       </c>
       <c r="R20">
-        <v>0.9998864388157893</v>
+        <v>0.9997486210958907</v>
       </c>
       <c r="S20">
-        <v>0.9998864388157893</v>
+        <v>0.9997486210958907</v>
       </c>
       <c r="T20">
-        <v>0.9999596207894735</v>
+        <v>0.9999106218493153</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9990630426419195</v>
+        <v>1.001211336315789</v>
       </c>
       <c r="D21">
-        <v>1.000772998997628</v>
+        <v>0.9990006547368421</v>
       </c>
       <c r="E21">
-        <v>0.9996486435848649</v>
+        <v>1.00045425</v>
       </c>
       <c r="F21">
-        <v>0.9996486435848649</v>
+        <v>1.00045425</v>
       </c>
       <c r="G21">
-        <v>1.001405444837208</v>
+        <v>0.9981830136842104</v>
       </c>
       <c r="H21">
-        <v>0.9996486435848649</v>
+        <v>1.00045425</v>
       </c>
       <c r="I21">
-        <v>0.9996486435848649</v>
+        <v>1.00045425</v>
       </c>
       <c r="J21">
-        <v>1.001405444837208</v>
+        <v>0.9981830136842104</v>
       </c>
       <c r="K21">
-        <v>0.9996486435848649</v>
+        <v>1.00045425</v>
       </c>
       <c r="L21">
-        <v>0.9996486435848649</v>
+        <v>1.00045425</v>
       </c>
       <c r="M21">
-        <v>1.000527044211037</v>
+        <v>0.9993186318421052</v>
       </c>
       <c r="N21">
-        <v>1.000527044211037</v>
+        <v>0.9993186318421052</v>
       </c>
       <c r="O21">
-        <v>1.0006090291399</v>
+        <v>0.9992126394736842</v>
       </c>
       <c r="P21">
-        <v>1.000234244002313</v>
+        <v>0.9996971712280702</v>
       </c>
       <c r="Q21">
-        <v>1.000234244002313</v>
+        <v>0.9996971712280702</v>
       </c>
       <c r="R21">
-        <v>1.000087843897951</v>
+        <v>0.9998864409210527</v>
       </c>
       <c r="S21">
-        <v>1.000087843897951</v>
+        <v>0.9998864409210527</v>
       </c>
       <c r="T21">
-        <v>1.000031236205225</v>
+        <v>0.9999596257894737</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9997580896586302</v>
+        <v>1.001211267894737</v>
       </c>
       <c r="D22">
-        <v>1.00019957926588</v>
+        <v>0.9990007015789473</v>
       </c>
       <c r="E22">
-        <v>0.9999092747051428</v>
+        <v>1.000454223157895</v>
       </c>
       <c r="F22">
-        <v>0.9999092747051428</v>
+        <v>1.000454223157895</v>
       </c>
       <c r="G22">
-        <v>1.000362879047983</v>
+        <v>0.9981830857894738</v>
       </c>
       <c r="H22">
-        <v>0.9999092747051428</v>
+        <v>1.000454223157895</v>
       </c>
       <c r="I22">
-        <v>0.9999092747051428</v>
+        <v>1.000454223157895</v>
       </c>
       <c r="J22">
-        <v>1.000362879047983</v>
+        <v>0.9981830857894738</v>
       </c>
       <c r="K22">
-        <v>0.9999092747051428</v>
+        <v>1.000454223157895</v>
       </c>
       <c r="L22">
-        <v>0.9999092747051428</v>
+        <v>1.000454223157895</v>
       </c>
       <c r="M22">
-        <v>1.000136076876563</v>
+        <v>0.9993186544736842</v>
       </c>
       <c r="N22">
-        <v>1.000136076876563</v>
+        <v>0.9993186544736842</v>
       </c>
       <c r="O22">
-        <v>1.000157244339668</v>
+        <v>0.9992126701754386</v>
       </c>
       <c r="P22">
-        <v>1.000060476152756</v>
+        <v>0.999697177368421</v>
       </c>
       <c r="Q22">
-        <v>1.000060476152756</v>
+        <v>0.999697177368421</v>
       </c>
       <c r="R22">
-        <v>1.000022675790853</v>
+        <v>0.9998864388157893</v>
       </c>
       <c r="S22">
-        <v>1.000022675790853</v>
+        <v>0.9998864388157893</v>
       </c>
       <c r="T22">
-        <v>1.000008062014653</v>
+        <v>0.9999596207894735</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9990629629886892</v>
+        <v>0.9990630426419195</v>
       </c>
       <c r="D23">
-        <v>1.000773057607487</v>
+        <v>1.000772998997628</v>
       </c>
       <c r="E23">
-        <v>0.9996486128627142</v>
+        <v>0.9996486435848649</v>
       </c>
       <c r="F23">
-        <v>0.9996486128627142</v>
+        <v>0.9996486435848649</v>
       </c>
       <c r="G23">
-        <v>1.001405547539571</v>
+        <v>1.001405444837208</v>
       </c>
       <c r="H23">
-        <v>0.9996486128627142</v>
+        <v>0.9996486435848649</v>
       </c>
       <c r="I23">
-        <v>0.9996486128627142</v>
+        <v>0.9996486435848649</v>
       </c>
       <c r="J23">
-        <v>1.001405547539571</v>
+        <v>1.001405444837208</v>
       </c>
       <c r="K23">
-        <v>0.9996486128627142</v>
+        <v>0.9996486435848649</v>
       </c>
       <c r="L23">
-        <v>0.9996486128627142</v>
+        <v>0.9996486435848649</v>
       </c>
       <c r="M23">
-        <v>1.000527080201143</v>
+        <v>1.000527044211037</v>
       </c>
       <c r="N23">
-        <v>1.000527080201143</v>
+        <v>1.000527044211037</v>
       </c>
       <c r="O23">
-        <v>1.000609072669924</v>
+        <v>1.0006090291399</v>
       </c>
       <c r="P23">
-        <v>1.000234257755</v>
+        <v>1.000234244002313</v>
       </c>
       <c r="Q23">
-        <v>1.000234257755</v>
+        <v>1.000234244002313</v>
       </c>
       <c r="R23">
-        <v>1.000087846531929</v>
+        <v>1.000087843897951</v>
       </c>
       <c r="S23">
-        <v>1.000087846531929</v>
+        <v>1.000087843897951</v>
       </c>
       <c r="T23">
-        <v>1.000031234453982</v>
+        <v>1.000031236205225</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9997580710951542</v>
+        <v>0.9997580896586302</v>
       </c>
       <c r="D24">
-        <v>1.000199597022938</v>
+        <v>1.00019957926588</v>
       </c>
       <c r="E24">
-        <v>0.999909277551643</v>
+        <v>0.9999092747051428</v>
       </c>
       <c r="F24">
-        <v>0.999909277551643</v>
+        <v>0.9999092747051428</v>
       </c>
       <c r="G24">
-        <v>1.00036290019896</v>
+        <v>1.000362879047983</v>
       </c>
       <c r="H24">
-        <v>0.999909277551643</v>
+        <v>0.9999092747051428</v>
       </c>
       <c r="I24">
-        <v>0.999909277551643</v>
+        <v>0.9999092747051428</v>
       </c>
       <c r="J24">
-        <v>1.00036290019896</v>
+        <v>1.000362879047983</v>
       </c>
       <c r="K24">
-        <v>0.999909277551643</v>
+        <v>0.9999092747051428</v>
       </c>
       <c r="L24">
-        <v>0.999909277551643</v>
+        <v>0.9999092747051428</v>
       </c>
       <c r="M24">
-        <v>1.000136088875301</v>
+        <v>1.000136076876563</v>
       </c>
       <c r="N24">
-        <v>1.000136088875301</v>
+        <v>1.000136076876563</v>
       </c>
       <c r="O24">
-        <v>1.000157258257847</v>
+        <v>1.000157244339668</v>
       </c>
       <c r="P24">
-        <v>1.000060485100749</v>
+        <v>1.000060476152756</v>
       </c>
       <c r="Q24">
-        <v>1.000060485100749</v>
+        <v>1.000060476152756</v>
       </c>
       <c r="R24">
-        <v>1.000022683213472</v>
+        <v>1.000022675790853</v>
       </c>
       <c r="S24">
-        <v>1.000022683213472</v>
+        <v>1.000022675790853</v>
       </c>
       <c r="T24">
-        <v>1.000008066828664</v>
+        <v>1.000008062014653</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9990628598745798</v>
+        <v>0.9990629629886892</v>
       </c>
       <c r="D25">
-        <v>1.000773134252293</v>
+        <v>1.000773057607487</v>
       </c>
       <c r="E25">
-        <v>0.9996485677650193</v>
+        <v>0.9996486128627142</v>
       </c>
       <c r="F25">
-        <v>0.9996485677650193</v>
+        <v>0.9996486128627142</v>
       </c>
       <c r="G25">
-        <v>1.001405684107493</v>
+        <v>1.001405547539571</v>
       </c>
       <c r="H25">
-        <v>0.9996485677650193</v>
+        <v>0.9996486128627142</v>
       </c>
       <c r="I25">
-        <v>0.9996485677650193</v>
+        <v>0.9996486128627142</v>
       </c>
       <c r="J25">
-        <v>1.001405684107493</v>
+        <v>1.001405547539571</v>
       </c>
       <c r="K25">
-        <v>0.9996485677650193</v>
+        <v>0.9996486128627142</v>
       </c>
       <c r="L25">
-        <v>0.9996485677650193</v>
+        <v>0.9996486128627142</v>
       </c>
       <c r="M25">
-        <v>1.000527125936256</v>
+        <v>1.000527080201143</v>
       </c>
       <c r="N25">
-        <v>1.000527125936256</v>
+        <v>1.000527080201143</v>
       </c>
       <c r="O25">
-        <v>1.000609128708268</v>
+        <v>1.000609072669924</v>
       </c>
       <c r="P25">
-        <v>1.00023427321251</v>
+        <v>1.000234257755</v>
       </c>
       <c r="Q25">
-        <v>1.00023427321251</v>
+        <v>1.000234257755</v>
       </c>
       <c r="R25">
-        <v>1.000087846850638</v>
+        <v>1.000087846531929</v>
       </c>
       <c r="S25">
-        <v>1.000087846850638</v>
+        <v>1.000087846531929</v>
       </c>
       <c r="T25">
-        <v>1.000031230254904</v>
+        <v>1.000031234453982</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9997580431662315</v>
+        <v>0.9997580710951542</v>
       </c>
       <c r="D26">
-        <v>1.000199617034237</v>
+        <v>1.000199597022938</v>
       </c>
       <c r="E26">
-        <v>0.999909267401151</v>
+        <v>0.999909277551643</v>
       </c>
       <c r="F26">
-        <v>0.999909267401151</v>
+        <v>0.999909277551643</v>
       </c>
       <c r="G26">
-        <v>1.000362936292582</v>
+        <v>1.00036290019896</v>
       </c>
       <c r="H26">
-        <v>0.999909267401151</v>
+        <v>0.999909277551643</v>
       </c>
       <c r="I26">
-        <v>0.999909267401151</v>
+        <v>0.999909277551643</v>
       </c>
       <c r="J26">
-        <v>1.000362936292582</v>
+        <v>1.00036290019896</v>
       </c>
       <c r="K26">
-        <v>0.999909267401151</v>
+        <v>0.999909277551643</v>
       </c>
       <c r="L26">
-        <v>0.999909267401151</v>
+        <v>0.999909277551643</v>
       </c>
       <c r="M26">
-        <v>1.000136101846866</v>
+        <v>1.000136088875301</v>
       </c>
       <c r="N26">
-        <v>1.000136101846866</v>
+        <v>1.000136088875301</v>
       </c>
       <c r="O26">
-        <v>1.00015727357599</v>
+        <v>1.000157258257847</v>
       </c>
       <c r="P26">
-        <v>1.000060490364961</v>
+        <v>1.000060485100749</v>
       </c>
       <c r="Q26">
-        <v>1.000060490364961</v>
+        <v>1.000060485100749</v>
       </c>
       <c r="R26">
-        <v>1.000022684624009</v>
+        <v>1.000022683213472</v>
       </c>
       <c r="S26">
-        <v>1.000022684624009</v>
+        <v>1.000022683213472</v>
       </c>
       <c r="T26">
-        <v>1.000008066449417</v>
+        <v>1.000008066828664</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000426171149966</v>
+        <v>0.9990628598745798</v>
       </c>
       <c r="D27">
-        <v>0.9996484292300374</v>
+        <v>1.000773134252293</v>
       </c>
       <c r="E27">
-        <v>1.00015980406992</v>
+        <v>0.9996485677650193</v>
       </c>
       <c r="F27">
-        <v>1.00015980406992</v>
+        <v>0.9996485677650193</v>
       </c>
       <c r="G27">
-        <v>0.9993607607417104</v>
+        <v>1.001405684107493</v>
       </c>
       <c r="H27">
-        <v>1.00015980406992</v>
+        <v>0.9996485677650193</v>
       </c>
       <c r="I27">
-        <v>1.00015980406992</v>
+        <v>0.9996485677650193</v>
       </c>
       <c r="J27">
-        <v>0.9993607607417104</v>
+        <v>1.001405684107493</v>
       </c>
       <c r="K27">
-        <v>1.00015980406992</v>
+        <v>0.9996485677650193</v>
       </c>
       <c r="L27">
-        <v>1.00015980406992</v>
+        <v>0.9996485677650193</v>
       </c>
       <c r="M27">
-        <v>0.9997602824058154</v>
+        <v>1.000527125936256</v>
       </c>
       <c r="N27">
-        <v>0.9997602824058154</v>
+        <v>1.000527125936256</v>
       </c>
       <c r="O27">
-        <v>0.9997229980138894</v>
+        <v>1.000609128708268</v>
       </c>
       <c r="P27">
-        <v>0.9998934562938504</v>
+        <v>1.00023427321251</v>
       </c>
       <c r="Q27">
-        <v>0.9998934562938504</v>
+        <v>1.00023427321251</v>
       </c>
       <c r="R27">
-        <v>0.9999600432378679</v>
+        <v>1.000087846850638</v>
       </c>
       <c r="S27">
-        <v>0.9999600432378679</v>
+        <v>1.000087846850638</v>
       </c>
       <c r="T27">
-        <v>0.9999857955552459</v>
+        <v>1.000031230254904</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9999260693199469</v>
+        <v>0.9997580431662315</v>
       </c>
       <c r="D28">
-        <v>1.000061001785794</v>
+        <v>1.000199617034237</v>
       </c>
       <c r="E28">
-        <v>0.9999722816739886</v>
+        <v>0.999909267401151</v>
       </c>
       <c r="F28">
-        <v>0.9999722816739886</v>
+        <v>0.999909267401151</v>
       </c>
       <c r="G28">
-        <v>1.000110896317773</v>
+        <v>1.000362936292582</v>
       </c>
       <c r="H28">
-        <v>0.9999722816739886</v>
+        <v>0.999909267401151</v>
       </c>
       <c r="I28">
-        <v>0.9999722816739886</v>
+        <v>0.999909267401151</v>
       </c>
       <c r="J28">
-        <v>1.000110896317773</v>
+        <v>1.000362936292582</v>
       </c>
       <c r="K28">
-        <v>0.9999722816739886</v>
+        <v>0.999909267401151</v>
       </c>
       <c r="L28">
-        <v>0.9999722816739886</v>
+        <v>0.999909267401151</v>
       </c>
       <c r="M28">
-        <v>1.00004158899588</v>
+        <v>1.000136101846866</v>
       </c>
       <c r="N28">
-        <v>1.00004158899588</v>
+        <v>1.000136101846866</v>
       </c>
       <c r="O28">
-        <v>1.000048059925851</v>
+        <v>1.00015727357599</v>
       </c>
       <c r="P28">
-        <v>1.00001848655525</v>
+        <v>1.000060490364961</v>
       </c>
       <c r="Q28">
-        <v>1.00001848655525</v>
+        <v>1.000060490364961</v>
       </c>
       <c r="R28">
-        <v>1.000006935334935</v>
+        <v>1.000022684624009</v>
       </c>
       <c r="S28">
-        <v>1.000006935334935</v>
+        <v>1.000022684624009</v>
       </c>
       <c r="T28">
-        <v>1.000002468740913</v>
+        <v>1.000008066449417</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000426171149966</v>
+      </c>
+      <c r="D29">
+        <v>0.9996484292300374</v>
+      </c>
+      <c r="E29">
+        <v>1.00015980406992</v>
+      </c>
+      <c r="F29">
+        <v>1.00015980406992</v>
+      </c>
+      <c r="G29">
+        <v>0.9993607607417104</v>
+      </c>
+      <c r="H29">
+        <v>1.00015980406992</v>
+      </c>
+      <c r="I29">
+        <v>1.00015980406992</v>
+      </c>
+      <c r="J29">
+        <v>0.9993607607417104</v>
+      </c>
+      <c r="K29">
+        <v>1.00015980406992</v>
+      </c>
+      <c r="L29">
+        <v>1.00015980406992</v>
+      </c>
+      <c r="M29">
+        <v>0.9997602824058154</v>
+      </c>
+      <c r="N29">
+        <v>0.9997602824058154</v>
+      </c>
+      <c r="O29">
+        <v>0.9997229980138894</v>
+      </c>
+      <c r="P29">
+        <v>0.9998934562938504</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998934562938504</v>
+      </c>
+      <c r="R29">
+        <v>0.9999600432378679</v>
+      </c>
+      <c r="S29">
+        <v>0.9999600432378679</v>
+      </c>
+      <c r="T29">
+        <v>0.9999857955552459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9999260693199469</v>
+      </c>
+      <c r="D30">
+        <v>1.000061001785794</v>
+      </c>
+      <c r="E30">
+        <v>0.9999722816739886</v>
+      </c>
+      <c r="F30">
+        <v>0.9999722816739886</v>
+      </c>
+      <c r="G30">
+        <v>1.000110896317773</v>
+      </c>
+      <c r="H30">
+        <v>0.9999722816739886</v>
+      </c>
+      <c r="I30">
+        <v>0.9999722816739886</v>
+      </c>
+      <c r="J30">
+        <v>1.000110896317773</v>
+      </c>
+      <c r="K30">
+        <v>0.9999722816739886</v>
+      </c>
+      <c r="L30">
+        <v>0.9999722816739886</v>
+      </c>
+      <c r="M30">
+        <v>1.00004158899588</v>
+      </c>
+      <c r="N30">
+        <v>1.00004158899588</v>
+      </c>
+      <c r="O30">
+        <v>1.000048059925851</v>
+      </c>
+      <c r="P30">
+        <v>1.00001848655525</v>
+      </c>
+      <c r="Q30">
+        <v>1.00001848655525</v>
+      </c>
+      <c r="R30">
+        <v>1.000006935334935</v>
+      </c>
+      <c r="S30">
+        <v>1.000006935334935</v>
+      </c>
+      <c r="T30">
+        <v>1.000002468740913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9986249917048791</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.001134381045772</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9994843787050506</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9994843787050506</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.002062506812253</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9994843787050506</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9994843787050506</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.002062506812253</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9994843787050506</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9994843787050506</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.000773442758652</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.000773442758652</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.000893755521025</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000343754740785</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000343754740785</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000128910731851</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000128910731851</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000045835946343</v>
       </c>
     </row>
